--- a/CosmicTests/JLabCosmicRunList.xlsx
+++ b/CosmicTests/JLabCosmicRunList.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="true"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="979" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" state="visible" r:id="rId2"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="35">
   <si>
     <t>Table 1</t>
   </si>
@@ -110,6 +110,21 @@
   </si>
   <si>
     <t>Setup 2</t>
+  </si>
+  <si>
+    <t>4 MB</t>
+  </si>
+  <si>
+    <t>4 thousand</t>
+  </si>
+  <si>
+    <t>Setup 2.  Have decreased HV of channels 1 and 3 by 100V each.  A short run as a test to look at ADC peak positions.</t>
+  </si>
+  <si>
+    <t>Setup 2.  Have decreased HV of channels 1 and 3 by 100V each.</t>
+  </si>
+  <si>
+    <t>Setup 2.  Have decreased HV of channels 1 and 3 to 1100V each.</t>
   </si>
 </sst>
 </file>
@@ -218,7 +233,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -257,10 +272,6 @@
     </xf>
     <xf numFmtId="166" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -283,17 +294,17 @@
   <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E3" activeCellId="0" sqref="E3"/>
+      <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="8" min="1" style="1" width="9.5037037037037"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="18.0296296296296"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="29.8888888888889"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="49.4851851851852"/>
-    <col collapsed="false" hidden="false" max="258" min="12" style="1" width="9.40740740740741"/>
-    <col collapsed="false" hidden="false" max="1025" min="259" style="0" width="9.40740740740741"/>
+    <col collapsed="false" hidden="false" max="8" min="1" style="1" width="9.8962962962963"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="18.8148148148148"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="31.4555555555556"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="52.0333333333333"/>
+    <col collapsed="false" hidden="false" max="258" min="12" style="1" width="9.8"/>
+    <col collapsed="false" hidden="false" max="1025" min="259" style="0" width="9.8"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="19" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -542,44 +553,98 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="20.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="9"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="0"/>
-      <c r="J9" s="10"/>
-      <c r="K9" s="8"/>
-    </row>
-    <row r="10" customFormat="false" ht="20.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="9"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
+    <row r="9" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="9" t="n">
+        <v>18</v>
+      </c>
+      <c r="B9" s="4" t="n">
+        <v>40975</v>
+      </c>
+      <c r="C9" s="4" t="n">
+        <v>40975</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="K9" s="8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="9" t="n">
+        <v>19</v>
+      </c>
+      <c r="B10" s="4" t="n">
+        <v>40975</v>
+      </c>
+      <c r="C10" s="4" t="n">
+        <v>40976</v>
+      </c>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
-    </row>
-    <row r="11" customFormat="false" ht="20.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="9"/>
-      <c r="B11" s="6"/>
+      <c r="F10" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="K10" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="9" t="n">
+        <v>20</v>
+      </c>
+      <c r="B11" s="4" t="n">
+        <v>40976</v>
+      </c>
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8"/>
+      <c r="G11" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="K11" s="8" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="20.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="9"/>

--- a/CosmicTests/JLabCosmicRunList.xlsx
+++ b/CosmicTests/JLabCosmicRunList.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="38">
   <si>
     <t>Table 1</t>
   </si>
@@ -106,7 +106,7 @@
     <t>(2028 + 2028 +63) MB</t>
   </si>
   <si>
-    <t>1.3 million</t>
+    <t>1.3 m</t>
   </si>
   <si>
     <t>Setup 2</t>
@@ -115,13 +115,22 @@
     <t>4 MB</t>
   </si>
   <si>
-    <t>4 thousand</t>
+    <t>4 th</t>
   </si>
   <si>
     <t>Setup 2.  Have decreased HV of channels 1 and 3 by 100V each.  A short run as a test to look at ADC peak positions.</t>
   </si>
   <si>
+    <t>1169 MB</t>
+  </si>
+  <si>
     <t>Setup 2.  Have decreased HV of channels 1 and 3 by 100V each.</t>
+  </si>
+  <si>
+    <t>163 MB</t>
+  </si>
+  <si>
+    <t>25 th</t>
   </si>
   <si>
     <t>Setup 2.  Have decreased HV of channels 1 and 3 to 1100V each.</t>
@@ -293,18 +302,18 @@
   </sheetPr>
   <dimension ref="A1:K14"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K10" activeCellId="0" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="8" min="1" style="1" width="9.8962962962963"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="18.8148148148148"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="31.4555555555556"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="52.0333333333333"/>
-    <col collapsed="false" hidden="false" max="258" min="12" style="1" width="9.8"/>
-    <col collapsed="false" hidden="false" max="1025" min="259" style="0" width="9.8"/>
+    <col collapsed="false" hidden="false" max="8" min="1" style="1" width="10.0925925925926"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="19.2074074074074"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="32.2407407407407"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="53.3074074074074"/>
+    <col collapsed="false" hidden="false" max="258" min="12" style="1" width="9.9962962962963"/>
+    <col collapsed="false" hidden="false" max="1025" min="259" style="0" width="9.9962962962963"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="19" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -598,7 +607,9 @@
       <c r="C10" s="4" t="n">
         <v>40976</v>
       </c>
-      <c r="D10" s="6"/>
+      <c r="D10" s="6" t="s">
+        <v>33</v>
+      </c>
       <c r="E10" s="6"/>
       <c r="F10" s="5" t="n">
         <v>1</v>
@@ -616,7 +627,7 @@
         <v>25</v>
       </c>
       <c r="K10" s="8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -626,10 +637,18 @@
       <c r="B11" s="4" t="n">
         <v>40976</v>
       </c>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
+      <c r="C11" s="4" t="n">
+        <v>40976</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F11" s="6" t="n">
+        <v>1</v>
+      </c>
       <c r="G11" s="6" t="s">
         <v>13</v>
       </c>
@@ -643,7 +662,7 @@
         <v>25</v>
       </c>
       <c r="K11" s="8" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="20.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">

--- a/CosmicTests/JLabCosmicRunList.xlsx
+++ b/CosmicTests/JLabCosmicRunList.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="45">
   <si>
     <t>Table 1</t>
   </si>
@@ -118,13 +118,13 @@
     <t>4 th</t>
   </si>
   <si>
-    <t>Setup 2.  Have decreased HV of channels 1 and 3 by 100V each.  A short run as a test to look at ADC peak positions.</t>
+    <t>Setup 2.  Have decreased HV of channels 1 and 3 by 100V each.  A short run as a test to look at ADC peak positions.  Didn't set HV correctly so no actual change to voltages…</t>
   </si>
   <si>
     <t>1169 MB</t>
   </si>
   <si>
-    <t>Setup 2.  Have decreased HV of channels 1 and 3 by 100V each.</t>
+    <t>Setup 2.  Tried to decreased HV of channels 1 and 3 to 1100V each (didn't set correctly – so all nominal HV values were used).</t>
   </si>
   <si>
     <t>163 MB</t>
@@ -133,7 +133,28 @@
     <t>25 th</t>
   </si>
   <si>
-    <t>Setup 2.  Have decreased HV of channels 1 and 3 to 1100V each.</t>
+    <t>SWAPPED THE fADC!!…</t>
+  </si>
+  <si>
+    <t>Setup 2.  Quick test.  Changed fADC – failed…  fADC not seated correctly.</t>
+  </si>
+  <si>
+    <t>79 MB</t>
+  </si>
+  <si>
+    <t>Setup 2.  Nominal HV, except 1100V for ch1 and ch3.  Quick test to check ADC peak positions, and that fADC is seated correctly.</t>
+  </si>
+  <si>
+    <t>69 MB</t>
+  </si>
+  <si>
+    <t>20 th</t>
+  </si>
+  <si>
+    <t>Setup 2.  Nominal HV, except 1300V for ch1 and ch3.  Quick test to check ADC peak positions.</t>
+  </si>
+  <si>
+    <t>Setup 2.  Nominal HV.  Quick test to check ADC peak positions.</t>
   </si>
 </sst>
 </file>
@@ -242,7 +263,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -271,6 +292,10 @@
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -281,6 +306,14 @@
     </xf>
     <xf numFmtId="166" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -300,20 +333,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="true"/>
   </sheetPr>
-  <dimension ref="A1:K14"/>
+  <dimension ref="A1:K17"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K10" activeCellId="0" sqref="K10"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="I1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K9" activeCellId="0" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="8" min="1" style="1" width="10.0925925925926"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="19.2074074074074"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="32.2407407407407"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="53.3074074074074"/>
-    <col collapsed="false" hidden="false" max="258" min="12" style="1" width="9.9962962962963"/>
-    <col collapsed="false" hidden="false" max="1025" min="259" style="0" width="9.9962962962963"/>
+    <col collapsed="false" hidden="false" max="8" min="1" style="1" width="10.6814814814815"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="20.6777777777778"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="34.5925925925926"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="57.4259259259259"/>
+    <col collapsed="false" hidden="false" max="258" min="12" style="1" width="10.5851851851852"/>
+    <col collapsed="false" hidden="false" max="1025" min="259" style="0" width="10.5851851851852"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="19" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -386,16 +419,16 @@
       <c r="G3" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="H3" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="I3" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="J3" s="7" t="s">
+      <c r="H3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="J3" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="K3" s="8"/>
+      <c r="K3" s="9"/>
     </row>
     <row r="4" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="n">
@@ -417,19 +450,19 @@
       <c r="G4" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="I4" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="J4" s="7" t="s">
+      <c r="H4" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="J4" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="K4" s="8"/>
+      <c r="K4" s="9"/>
     </row>
     <row r="5" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="9" t="n">
+      <c r="A5" s="10" t="n">
         <v>14</v>
       </c>
       <c r="B5" s="4" t="n">
@@ -448,21 +481,21 @@
       <c r="G5" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="H5" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="I5" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="J5" s="7" t="s">
+      <c r="H5" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="J5" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="K5" s="8" t="s">
+      <c r="K5" s="9" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="9" t="n">
+      <c r="A6" s="10" t="n">
         <v>15</v>
       </c>
       <c r="B6" s="4" t="n">
@@ -484,18 +517,18 @@
       <c r="H6" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="I6" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="J6" s="7" t="s">
+      <c r="I6" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="J6" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="K6" s="8" t="s">
+      <c r="K6" s="9" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="9" t="n">
+      <c r="A7" s="10" t="n">
         <v>16</v>
       </c>
       <c r="B7" s="4" t="n">
@@ -514,21 +547,21 @@
       <c r="G7" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="H7" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="I7" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="K7" s="8" t="s">
+      <c r="H7" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="I7" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="J7" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="K7" s="9" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="9" t="n">
+      <c r="A8" s="10" t="n">
         <v>17</v>
       </c>
       <c r="B8" s="4" t="n">
@@ -549,21 +582,21 @@
       <c r="G8" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="H8" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="I8" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="K8" s="8" t="s">
+      <c r="H8" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="J8" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="K8" s="9" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="9" t="n">
+      <c r="A9" s="10" t="n">
         <v>18</v>
       </c>
       <c r="B9" s="4" t="n">
@@ -584,21 +617,21 @@
       <c r="G9" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="H9" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="I9" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="J9" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="K9" s="8" t="s">
+      <c r="H9" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="J9" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="K9" s="9" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="9" t="n">
+      <c r="A10" s="10" t="n">
         <v>19</v>
       </c>
       <c r="B10" s="4" t="n">
@@ -617,21 +650,21 @@
       <c r="G10" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="H10" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="I10" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="K10" s="8" t="s">
+      <c r="H10" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="I10" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="J10" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="K10" s="9" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="9" t="n">
+      <c r="A11" s="10" t="n">
         <v>20</v>
       </c>
       <c r="B11" s="4" t="n">
@@ -652,21 +685,21 @@
       <c r="G11" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="H11" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="I11" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="K11" s="8" t="s">
-        <v>37</v>
+      <c r="H11" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="I11" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="J11" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="K11" s="9" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="20.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="9"/>
+      <c r="A12" s="10"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
@@ -674,35 +707,178 @@
       <c r="F12" s="6"/>
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
-    </row>
-    <row r="13" customFormat="false" ht="20.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="9"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="10" t="n">
+        <v>24</v>
+      </c>
+      <c r="B13" s="4" t="n">
+        <v>40976</v>
+      </c>
+      <c r="C13" s="4" t="n">
+        <v>40976</v>
+      </c>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8"/>
-    </row>
-    <row r="14" customFormat="false" ht="20.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="9"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
+      <c r="F13" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I13" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="J13" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="K13" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="10" t="n">
+        <v>25</v>
+      </c>
+      <c r="B14" s="4" t="n">
+        <v>40976</v>
+      </c>
+      <c r="C14" s="4" t="n">
+        <v>40976</v>
+      </c>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="8"/>
+      <c r="F14" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I14" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="J14" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="K14" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="10" t="n">
+        <v>26</v>
+      </c>
+      <c r="B15" s="4" t="n">
+        <v>40977</v>
+      </c>
+      <c r="C15" s="4" t="n">
+        <v>40977</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F15" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H15" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="I15" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="J15" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="K15" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="10" t="n">
+        <v>27</v>
+      </c>
+      <c r="B16" s="4" t="n">
+        <v>40977</v>
+      </c>
+      <c r="C16" s="4" t="n">
+        <v>40977</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="F16" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H16" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="I16" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="J16" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="K16" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="10" t="n">
+        <v>28</v>
+      </c>
+      <c r="B17" s="4" t="n">
+        <v>40978</v>
+      </c>
+      <c r="C17" s="4" t="n">
+        <v>40978</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="F17" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H17" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="I17" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="J17" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="K17" s="9" t="s">
+        <v>44</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/CosmicTests/JLabCosmicRunList.xlsx
+++ b/CosmicTests/JLabCosmicRunList.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="45">
   <si>
     <t>Table 1</t>
   </si>
@@ -34,7 +34,7 @@
     <t>End Date</t>
   </si>
   <si>
-    <t>Size</t>
+    <t>Size (MB)</t>
   </si>
   <si>
     <t>Number of Events</t>
@@ -55,12 +55,12 @@
     <t>Conditions</t>
   </si>
   <si>
+    <t>Trigger rates (events/s  KB/s)</t>
+  </si>
+  <si>
     <t>Comments</t>
   </si>
   <si>
-    <t>11 MB</t>
-  </si>
-  <si>
     <t>18_16</t>
   </si>
   <si>
@@ -73,21 +73,12 @@
     <t>Only fADC channels (ch0 - ch5)</t>
   </si>
   <si>
-    <t>82 MB</t>
-  </si>
-  <si>
     <t>6 fADC and TDC channels read out (ch0 - ch5)</t>
   </si>
   <si>
-    <t>1690 MB</t>
-  </si>
-  <si>
     <t>Setup 1:  Original working setup</t>
   </si>
   <si>
-    <t>1 MB</t>
-  </si>
-  <si>
     <t>Bad</t>
   </si>
   <si>
@@ -97,13 +88,13 @@
     <t>Setup 2:  Failed setup, useless file</t>
   </si>
   <si>
-    <t>6 fADC and TDC channels read out (ch1 – ch6).  Coincidence signal should be ch0</t>
+    <t>6 fADC and TDC channels read out (ch1 – ch6).  Coincidence signal is ch0</t>
   </si>
   <si>
     <t>Setup 2:  corrected setup, 1 minute run to check DAQ was okay</t>
   </si>
   <si>
-    <t>(2028 + 2028 +63) MB</t>
+    <t>2028 + 2028 + 63</t>
   </si>
   <si>
     <t>1.3 m</t>
@@ -112,24 +103,15 @@
     <t>Setup 2</t>
   </si>
   <si>
-    <t>4 MB</t>
-  </si>
-  <si>
     <t>4 th</t>
   </si>
   <si>
     <t>Setup 2.  Have decreased HV of channels 1 and 3 by 100V each.  A short run as a test to look at ADC peak positions.  Didn't set HV correctly so no actual change to voltages…</t>
   </si>
   <si>
-    <t>1169 MB</t>
-  </si>
-  <si>
     <t>Setup 2.  Tried to decreased HV of channels 1 and 3 to 1100V each (didn't set correctly – so all nominal HV values were used).</t>
   </si>
   <si>
-    <t>163 MB</t>
-  </si>
-  <si>
     <t>25 th</t>
   </si>
   <si>
@@ -139,22 +121,40 @@
     <t>Setup 2.  Quick test.  Changed fADC – failed…  fADC not seated correctly.</t>
   </si>
   <si>
-    <t>79 MB</t>
+    <t>Integrated:  1.09  6.0                   **V is too low for ch1 and ch3**</t>
   </si>
   <si>
     <t>Setup 2.  Nominal HV, except 1100V for ch1 and ch3.  Quick test to check ADC peak positions, and that fADC is seated correctly.</t>
   </si>
   <si>
-    <t>69 MB</t>
-  </si>
-  <si>
     <t>20 th</t>
   </si>
   <si>
+    <t>Integrated:  5.2  16.8                   In spec</t>
+  </si>
+  <si>
     <t>Setup 2.  Nominal HV, except 1300V for ch1 and ch3.  Quick test to check ADC peak positions.</t>
   </si>
   <si>
+    <t>Integrated:  5.9  19.0                   In spec</t>
+  </si>
+  <si>
     <t>Setup 2.  Nominal HV.  Quick test to check ADC peak positions.</t>
+  </si>
+  <si>
+    <t>72 th</t>
+  </si>
+  <si>
+    <t>Integrated:  5.4  17.5                   In spec</t>
+  </si>
+  <si>
+    <t>Setup 2.  Nominal HV, except 1330V for ch1 and ch3.  Quick test to check ADC peak positions.</t>
+  </si>
+  <si>
+    <t>Integrated:  5.2  16.6                   In spec</t>
+  </si>
+  <si>
+    <t>Setup 2.  Nominal HV, except ch1 = 1361V and ch3 = 1332V.</t>
   </si>
 </sst>
 </file>
@@ -333,20 +333,24 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="true"/>
   </sheetPr>
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:L37"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="I1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K9" activeCellId="0" sqref="K9"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="J10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K16" activeCellId="0" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="8" min="1" style="1" width="10.6814814814815"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="20.6777777777778"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="34.5925925925926"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="57.4259259259259"/>
-    <col collapsed="false" hidden="false" max="258" min="12" style="1" width="10.5851851851852"/>
-    <col collapsed="false" hidden="false" max="1025" min="259" style="0" width="10.5851851851852"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="11.562962962963"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="1" width="8.36296296296296"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="7.78148148148148"/>
+    <col collapsed="false" hidden="false" max="8" min="5" style="1" width="11.562962962963"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="22.2444444444444"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="37.337037037037"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="21.2962962962963"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="61.8333333333333"/>
+    <col collapsed="false" hidden="false" max="259" min="13" style="1" width="11.3666666666667"/>
+    <col collapsed="false" hidden="false" max="1025" min="260" style="0" width="11.3666666666667"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="19" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -363,6 +367,7 @@
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
     </row>
     <row r="2" customFormat="false" ht="32.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
@@ -397,6 +402,9 @@
       </c>
       <c r="K2" s="3" t="s">
         <v>11</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -409,8 +417,8 @@
       <c r="C3" s="4" t="n">
         <v>40970</v>
       </c>
-      <c r="D3" s="5" t="s">
-        <v>12</v>
+      <c r="D3" s="5" t="n">
+        <v>11</v>
       </c>
       <c r="E3" s="5"/>
       <c r="F3" s="5" t="n">
@@ -428,7 +436,8 @@
       <c r="J3" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="K3" s="9"/>
+      <c r="K3" s="0"/>
+      <c r="L3" s="9"/>
     </row>
     <row r="4" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="n">
@@ -440,8 +449,8 @@
       <c r="C4" s="4" t="n">
         <v>40971</v>
       </c>
-      <c r="D4" s="5" t="s">
-        <v>17</v>
+      <c r="D4" s="5" t="n">
+        <v>82</v>
       </c>
       <c r="E4" s="5"/>
       <c r="F4" s="5" t="n">
@@ -457,9 +466,10 @@
         <v>15</v>
       </c>
       <c r="J4" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="K4" s="9"/>
+        <v>17</v>
+      </c>
+      <c r="K4" s="8"/>
+      <c r="L4" s="9"/>
     </row>
     <row r="5" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="10" t="n">
@@ -471,8 +481,8 @@
       <c r="C5" s="4" t="n">
         <v>40972</v>
       </c>
-      <c r="D5" s="6" t="s">
-        <v>19</v>
+      <c r="D5" s="6" t="n">
+        <v>1690</v>
       </c>
       <c r="E5" s="6"/>
       <c r="F5" s="5" t="n">
@@ -488,10 +498,11 @@
         <v>15</v>
       </c>
       <c r="J5" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="K5" s="8"/>
+      <c r="L5" s="9" t="s">
         <v>18</v>
-      </c>
-      <c r="K5" s="9" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -504,8 +515,8 @@
       <c r="C6" s="4" t="n">
         <v>40972</v>
       </c>
-      <c r="D6" s="6" t="s">
-        <v>21</v>
+      <c r="D6" s="6" t="n">
+        <v>1</v>
       </c>
       <c r="E6" s="6"/>
       <c r="F6" s="5" t="n">
@@ -515,16 +526,17 @@
         <v>13</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="I6" s="8" t="s">
         <v>15</v>
       </c>
       <c r="J6" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="K6" s="9" t="s">
-        <v>24</v>
+        <v>20</v>
+      </c>
+      <c r="K6" s="8"/>
+      <c r="L6" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -537,8 +549,8 @@
       <c r="C7" s="4" t="n">
         <v>40972</v>
       </c>
-      <c r="D7" s="6" t="s">
-        <v>21</v>
+      <c r="D7" s="6" t="n">
+        <v>1</v>
       </c>
       <c r="E7" s="6"/>
       <c r="F7" s="5" t="n">
@@ -554,10 +566,11 @@
         <v>15</v>
       </c>
       <c r="J7" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="K7" s="9" t="s">
-        <v>26</v>
+        <v>22</v>
+      </c>
+      <c r="K7" s="8"/>
+      <c r="L7" s="9" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -571,10 +584,10 @@
         <v>40975</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F8" s="5" t="n">
         <v>3</v>
@@ -589,10 +602,11 @@
         <v>15</v>
       </c>
       <c r="J8" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="K8" s="9" t="s">
-        <v>29</v>
+        <v>22</v>
+      </c>
+      <c r="K8" s="8"/>
+      <c r="L8" s="9" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -605,11 +619,11 @@
       <c r="C9" s="4" t="n">
         <v>40975</v>
       </c>
-      <c r="D9" s="6" t="s">
-        <v>30</v>
+      <c r="D9" s="6" t="n">
+        <v>4</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F9" s="5" t="n">
         <v>1</v>
@@ -624,10 +638,11 @@
         <v>15</v>
       </c>
       <c r="J9" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="K9" s="9" t="s">
-        <v>32</v>
+        <v>22</v>
+      </c>
+      <c r="K9" s="8"/>
+      <c r="L9" s="9" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -640,8 +655,8 @@
       <c r="C10" s="4" t="n">
         <v>40976</v>
       </c>
-      <c r="D10" s="6" t="s">
-        <v>33</v>
+      <c r="D10" s="6" t="n">
+        <v>1169</v>
       </c>
       <c r="E10" s="6"/>
       <c r="F10" s="5" t="n">
@@ -657,10 +672,11 @@
         <v>15</v>
       </c>
       <c r="J10" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="K10" s="9" t="s">
-        <v>34</v>
+        <v>22</v>
+      </c>
+      <c r="K10" s="8"/>
+      <c r="L10" s="9" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -673,11 +689,11 @@
       <c r="C11" s="4" t="n">
         <v>40976</v>
       </c>
-      <c r="D11" s="6" t="s">
-        <v>35</v>
+      <c r="D11" s="6" t="n">
+        <v>163</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="F11" s="6" t="n">
         <v>1</v>
@@ -692,10 +708,11 @@
         <v>15</v>
       </c>
       <c r="J11" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="K11" s="9" t="s">
-        <v>34</v>
+        <v>22</v>
+      </c>
+      <c r="K11" s="8"/>
+      <c r="L11" s="9" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="20.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -709,8 +726,9 @@
       <c r="H12" s="6"/>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
-      <c r="K12" s="12" t="s">
-        <v>37</v>
+      <c r="K12" s="8"/>
+      <c r="L12" s="12" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -732,16 +750,17 @@
         <v>13</v>
       </c>
       <c r="H13" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I13" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="J13" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="I13" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="J13" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="K13" s="9" t="s">
-        <v>38</v>
+      <c r="K13" s="8"/>
+      <c r="L13" s="9" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -763,16 +782,17 @@
         <v>13</v>
       </c>
       <c r="H14" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I14" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="J14" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="I14" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="J14" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="K14" s="9" t="s">
-        <v>38</v>
+      <c r="K14" s="8"/>
+      <c r="L14" s="9" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -785,11 +805,11 @@
       <c r="C15" s="4" t="n">
         <v>40977</v>
       </c>
-      <c r="D15" s="6" t="s">
-        <v>39</v>
+      <c r="D15" s="6" t="n">
+        <v>79</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="F15" s="6" t="n">
         <v>1</v>
@@ -804,10 +824,13 @@
         <v>15</v>
       </c>
       <c r="J15" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="K15" s="9" t="s">
-        <v>40</v>
+        <v>22</v>
+      </c>
+      <c r="K15" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="L15" s="9" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -820,11 +843,11 @@
       <c r="C16" s="4" t="n">
         <v>40977</v>
       </c>
-      <c r="D16" s="6" t="s">
-        <v>41</v>
+      <c r="D16" s="6" t="n">
+        <v>69</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="F16" s="6" t="n">
         <v>1</v>
@@ -839,10 +862,13 @@
         <v>15</v>
       </c>
       <c r="J16" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="K16" s="9" t="s">
-        <v>43</v>
+        <v>22</v>
+      </c>
+      <c r="K16" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="L16" s="9" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -855,11 +881,11 @@
       <c r="C17" s="4" t="n">
         <v>40978</v>
       </c>
-      <c r="D17" s="6" t="s">
-        <v>41</v>
+      <c r="D17" s="6" t="n">
+        <v>69</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="F17" s="6" t="n">
         <v>1</v>
@@ -874,15 +900,336 @@
         <v>15</v>
       </c>
       <c r="J17" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="K17" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="K17" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="L17" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="10" t="n">
+        <v>29</v>
+      </c>
+      <c r="B18" s="4" t="n">
+        <v>40978</v>
+      </c>
+      <c r="C18" s="4" t="n">
+        <v>40978</v>
+      </c>
+      <c r="D18" s="6" t="n">
+        <v>227</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F18" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H18" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="I18" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="J18" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="K18" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="L18" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="10" t="n">
+        <v>30</v>
+      </c>
+      <c r="B19" s="4" t="n">
+        <v>40978</v>
+      </c>
+      <c r="C19" s="4"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H19" s="11"/>
+      <c r="I19" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="J19" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="K19" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="L19" s="9" t="s">
         <v>44</v>
       </c>
+    </row>
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="10"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="9"/>
+    </row>
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="10"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="9"/>
+    </row>
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="10"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="8"/>
+      <c r="L22" s="9"/>
+    </row>
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="10"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="8"/>
+      <c r="L23" s="9"/>
+    </row>
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="10"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="8"/>
+      <c r="L24" s="9"/>
+    </row>
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="10"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="8"/>
+      <c r="K25" s="8"/>
+      <c r="L25" s="9"/>
+    </row>
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="10"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="8"/>
+      <c r="K26" s="8"/>
+      <c r="L26" s="9"/>
+    </row>
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="10"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="8"/>
+      <c r="K27" s="8"/>
+      <c r="L27" s="9"/>
+    </row>
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="10"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="8"/>
+      <c r="J28" s="8"/>
+      <c r="K28" s="8"/>
+      <c r="L28" s="9"/>
+    </row>
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="10"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="11"/>
+      <c r="I29" s="8"/>
+      <c r="J29" s="8"/>
+      <c r="K29" s="8"/>
+      <c r="L29" s="9"/>
+    </row>
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="10"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="11"/>
+      <c r="I30" s="8"/>
+      <c r="J30" s="8"/>
+      <c r="K30" s="8"/>
+      <c r="L30" s="9"/>
+    </row>
+    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="10"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="11"/>
+      <c r="I31" s="8"/>
+      <c r="J31" s="8"/>
+      <c r="K31" s="8"/>
+      <c r="L31" s="9"/>
+    </row>
+    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="10"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="11"/>
+      <c r="I32" s="8"/>
+      <c r="J32" s="8"/>
+      <c r="K32" s="8"/>
+      <c r="L32" s="9"/>
+    </row>
+    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="10"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6"/>
+      <c r="H33" s="11"/>
+      <c r="I33" s="8"/>
+      <c r="J33" s="8"/>
+      <c r="K33" s="8"/>
+      <c r="L33" s="9"/>
+    </row>
+    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="10"/>
+      <c r="B34" s="4"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="6"/>
+      <c r="H34" s="11"/>
+      <c r="I34" s="8"/>
+      <c r="J34" s="8"/>
+      <c r="K34" s="8"/>
+      <c r="L34" s="9"/>
+    </row>
+    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="10"/>
+      <c r="B35" s="4"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="6"/>
+      <c r="H35" s="11"/>
+      <c r="I35" s="8"/>
+      <c r="J35" s="8"/>
+      <c r="K35" s="8"/>
+      <c r="L35" s="9"/>
+    </row>
+    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="10"/>
+      <c r="B36" s="4"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="6"/>
+      <c r="G36" s="6"/>
+      <c r="H36" s="11"/>
+      <c r="I36" s="8"/>
+      <c r="J36" s="8"/>
+      <c r="K36" s="8"/>
+      <c r="L36" s="9"/>
+    </row>
+    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="10"/>
+      <c r="B37" s="4"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="6"/>
+      <c r="H37" s="11"/>
+      <c r="I37" s="8"/>
+      <c r="J37" s="8"/>
+      <c r="K37" s="8"/>
+      <c r="L37" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A1:L1"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.5"/>

--- a/CosmicTests/JLabCosmicRunList.xlsx
+++ b/CosmicTests/JLabCosmicRunList.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="64">
   <si>
     <t>Table 1</t>
   </si>
@@ -109,19 +109,22 @@
     <t>Setup 2.  Have decreased HV of channels 1 and 3 by 100V each.  A short run as a test to look at ADC peak positions.  Didn't set HV correctly so no actual change to voltages…</t>
   </si>
   <si>
+    <t>375 th</t>
+  </si>
+  <si>
     <t>Setup 2.  Tried to decreased HV of channels 1 and 3 to 1100V each (didn't set correctly – so all nominal HV values were used).</t>
   </si>
   <si>
     <t>25 th</t>
   </si>
   <si>
-    <t>SWAPPED THE fADC!!…</t>
+    <t>HAVE NOW SWAPPED THE fADC!!…</t>
   </si>
   <si>
     <t>Setup 2.  Quick test.  Changed fADC – failed…  fADC not seated correctly.</t>
   </si>
   <si>
-    <t>Integrated:  1.09  6.0                   **V is too low for ch1 and ch3**</t>
+    <t>Integrated:  1.09  6.0                              **V is too low for ch1 and ch3**</t>
   </si>
   <si>
     <t>Setup 2.  Nominal HV, except 1100V for ch1 and ch3.  Quick test to check ADC peak positions, and that fADC is seated correctly.</t>
@@ -130,13 +133,13 @@
     <t>20 th</t>
   </si>
   <si>
-    <t>Integrated:  5.2  16.8                   In spec</t>
+    <t>Integrated:  5.2  16.8                                In spec</t>
   </si>
   <si>
     <t>Setup 2.  Nominal HV, except 1300V for ch1 and ch3.  Quick test to check ADC peak positions.</t>
   </si>
   <si>
-    <t>Integrated:  5.9  19.0                   In spec</t>
+    <t>Integrated:  5.9  19.0                                In spec</t>
   </si>
   <si>
     <t>Setup 2.  Nominal HV.  Quick test to check ADC peak positions.</t>
@@ -145,16 +148,70 @@
     <t>72 th</t>
   </si>
   <si>
-    <t>Integrated:  5.4  17.5                   In spec</t>
+    <t>Integrated:  5.4  17.5                                In spec</t>
   </si>
   <si>
     <t>Setup 2.  Nominal HV, except 1330V for ch1 and ch3.  Quick test to check ADC peak positions.</t>
   </si>
   <si>
-    <t>Integrated:  5.2  16.6                   In spec</t>
-  </si>
-  <si>
-    <t>Setup 2.  Nominal HV, except ch1 = 1361V and ch3 = 1332V.</t>
+    <t>2028 + 1154</t>
+  </si>
+  <si>
+    <t>1 m</t>
+  </si>
+  <si>
+    <t>*Good*</t>
+  </si>
+  <si>
+    <t>Integrated:  5.2  16.6                                In spec</t>
+  </si>
+  <si>
+    <t>Setup 2.  Nominal HV, except ch1 = 1361V and ch3 = 1332V.  NB DAQ end run error below, copied immediately, will check final output file to check how many events to avoid…</t>
+  </si>
+  <si>
+    <t>6_6</t>
+  </si>
+  <si>
+    <t>Integrated:  5.3  17.0                                In spec</t>
+  </si>
+  <si>
+    <t>Setup 2.  Nominal HV.  Quick test of trigger rate.</t>
+  </si>
+  <si>
+    <t>21 th</t>
+  </si>
+  <si>
+    <t>Setup 2.  Nominal HV.</t>
+  </si>
+  <si>
+    <t>26 th</t>
+  </si>
+  <si>
+    <t>Setup 2.  HV calibration run.</t>
+  </si>
+  <si>
+    <t>Integrated:  6.1  19.6                                 In spec</t>
+  </si>
+  <si>
+    <t>Setup 2.  HV calibrated run. Short run to check OK.</t>
+  </si>
+  <si>
+    <t>92 th</t>
+  </si>
+  <si>
+    <t>*Bad*</t>
+  </si>
+  <si>
+    <t>Integrated:  5.8  18.4                                 In spec</t>
+  </si>
+  <si>
+    <t>Setup 2.  HV calibrated run.  Jlab computers were restarted so only got 4 hours of data…</t>
+  </si>
+  <si>
+    <t>Integrated:  6.0  19.5                                 In spec</t>
+  </si>
+  <si>
+    <t>Setup 2.  HV calibrated run.</t>
   </si>
 </sst>
 </file>
@@ -335,22 +392,22 @@
   </sheetPr>
   <dimension ref="A1:L37"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="J10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K16" activeCellId="0" sqref="K16"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="L13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L20" activeCellId="0" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="11.562962962963"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="1" width="8.36296296296296"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="7.78148148148148"/>
-    <col collapsed="false" hidden="false" max="8" min="5" style="1" width="11.562962962963"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="22.2444444444444"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="37.337037037037"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="21.2962962962963"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="61.8333333333333"/>
-    <col collapsed="false" hidden="false" max="259" min="13" style="1" width="11.3666666666667"/>
-    <col collapsed="false" hidden="false" max="1025" min="260" style="0" width="11.3666666666667"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="12.937037037037"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="1" width="9.40740740740741"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="8.42592592592593"/>
+    <col collapsed="false" hidden="false" max="8" min="5" style="1" width="12.937037037037"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="25.4777777777778"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="43.1185185185185"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="24.4"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="71.8296296296296"/>
+    <col collapsed="false" hidden="false" max="259" min="13" style="1" width="12.837037037037"/>
+    <col collapsed="false" hidden="false" max="1025" min="260" style="0" width="9.21111111111111"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="19" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -658,7 +715,9 @@
       <c r="D10" s="6" t="n">
         <v>1169</v>
       </c>
-      <c r="E10" s="6"/>
+      <c r="E10" s="6" t="s">
+        <v>29</v>
+      </c>
       <c r="F10" s="5" t="n">
         <v>1</v>
       </c>
@@ -676,7 +735,7 @@
       </c>
       <c r="K10" s="8"/>
       <c r="L10" s="9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -693,7 +752,7 @@
         <v>163</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F11" s="6" t="n">
         <v>1</v>
@@ -712,7 +771,7 @@
       </c>
       <c r="K11" s="8"/>
       <c r="L11" s="9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="20.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -728,7 +787,7 @@
       <c r="J12" s="9"/>
       <c r="K12" s="8"/>
       <c r="L12" s="12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -760,7 +819,7 @@
       </c>
       <c r="K13" s="8"/>
       <c r="L13" s="9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -792,7 +851,7 @@
       </c>
       <c r="K14" s="8"/>
       <c r="L14" s="9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -809,7 +868,7 @@
         <v>79</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F15" s="6" t="n">
         <v>1</v>
@@ -827,10 +886,10 @@
         <v>22</v>
       </c>
       <c r="K15" s="8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="L15" s="9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -847,7 +906,7 @@
         <v>69</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F16" s="6" t="n">
         <v>1</v>
@@ -865,10 +924,10 @@
         <v>22</v>
       </c>
       <c r="K16" s="8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="L16" s="9" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -885,7 +944,7 @@
         <v>69</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F17" s="6" t="n">
         <v>1</v>
@@ -903,10 +962,10 @@
         <v>22</v>
       </c>
       <c r="K17" s="8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L17" s="9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -923,7 +982,7 @@
         <v>227</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F18" s="6" t="n">
         <v>1</v>
@@ -941,10 +1000,10 @@
         <v>22</v>
       </c>
       <c r="K18" s="8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L18" s="9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -954,14 +1013,24 @@
       <c r="B19" s="4" t="n">
         <v>40978</v>
       </c>
-      <c r="C19" s="4"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
+      <c r="C19" s="4" t="n">
+        <v>40982</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="F19" s="6" t="n">
+        <v>2</v>
+      </c>
       <c r="G19" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="H19" s="11"/>
+      <c r="H19" s="11" t="s">
+        <v>46</v>
+      </c>
       <c r="I19" s="8" t="s">
         <v>15</v>
       </c>
@@ -969,109 +1038,259 @@
         <v>22</v>
       </c>
       <c r="K19" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="L19" s="9" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="10"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
+        <v>47</v>
+      </c>
+      <c r="L19" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="B20" s="4" t="n">
+        <v>40982</v>
+      </c>
+      <c r="C20" s="4" t="n">
+        <v>40982</v>
+      </c>
       <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
+      <c r="E20" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>49</v>
+      </c>
       <c r="H20" s="11"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="8"/>
-      <c r="K20" s="8"/>
-      <c r="L20" s="9"/>
-    </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="10"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="8"/>
-      <c r="J21" s="8"/>
-      <c r="K21" s="8"/>
-      <c r="L21" s="9"/>
-    </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="10"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="8"/>
-      <c r="J22" s="8"/>
+      <c r="I20" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="J20" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="K20" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="L20" s="9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="10" t="n">
+        <v>32</v>
+      </c>
+      <c r="B21" s="4" t="n">
+        <v>40982</v>
+      </c>
+      <c r="C21" s="4" t="n">
+        <v>40982</v>
+      </c>
+      <c r="D21" s="6" t="n">
+        <v>66</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F21" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="H21" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="I21" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="J21" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="K21" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="L21" s="9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="10" t="n">
+        <v>33</v>
+      </c>
+      <c r="B22" s="4" t="n">
+        <v>40982</v>
+      </c>
+      <c r="C22" s="4" t="n">
+        <v>40982</v>
+      </c>
+      <c r="D22" s="6" t="n">
+        <v>81</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="F22" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="H22" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="I22" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="J22" s="8" t="s">
+        <v>22</v>
+      </c>
       <c r="K22" s="8"/>
-      <c r="L22" s="9"/>
-    </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="10"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="8"/>
-      <c r="J23" s="8"/>
+      <c r="L22" s="9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="10" t="n">
+        <v>34</v>
+      </c>
+      <c r="B23" s="4" t="n">
+        <v>40982</v>
+      </c>
+      <c r="C23" s="4" t="n">
+        <v>40983</v>
+      </c>
+      <c r="D23" s="6" t="n">
+        <v>63</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F23" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="H23" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="I23" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="J23" s="8" t="s">
+        <v>22</v>
+      </c>
       <c r="K23" s="8"/>
-      <c r="L23" s="9"/>
-    </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="10"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="11"/>
-      <c r="I24" s="8"/>
-      <c r="J24" s="8"/>
-      <c r="K24" s="8"/>
-      <c r="L24" s="9"/>
-    </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="10"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="11"/>
-      <c r="I25" s="8"/>
-      <c r="J25" s="8"/>
-      <c r="K25" s="8"/>
-      <c r="L25" s="9"/>
-    </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="10"/>
-      <c r="B26" s="4"/>
+      <c r="L23" s="9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="10" t="n">
+        <v>35</v>
+      </c>
+      <c r="B24" s="4" t="n">
+        <v>40983</v>
+      </c>
+      <c r="C24" s="4" t="n">
+        <v>40983</v>
+      </c>
+      <c r="D24" s="6" t="n">
+        <v>63</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F24" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="H24" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="I24" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="J24" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="K24" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="L24" s="9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="10" t="n">
+        <v>36</v>
+      </c>
+      <c r="B25" s="4" t="n">
+        <v>40983</v>
+      </c>
+      <c r="C25" s="4" t="n">
+        <v>40984</v>
+      </c>
+      <c r="D25" s="6" t="n">
+        <v>301</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="F25" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="H25" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="I25" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="J25" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="K25" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="L25" s="12" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="10" t="n">
+        <v>37</v>
+      </c>
+      <c r="B26" s="4" t="n">
+        <v>40984</v>
+      </c>
       <c r="C26" s="4"/>
       <c r="D26" s="6"/>
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
+      <c r="G26" s="6" t="s">
+        <v>49</v>
+      </c>
       <c r="H26" s="11"/>
-      <c r="I26" s="8"/>
-      <c r="J26" s="8"/>
-      <c r="K26" s="8"/>
-      <c r="L26" s="9"/>
+      <c r="I26" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="J26" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="K26" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="L26" s="9" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="10"/>

--- a/CosmicTests/JLabCosmicRunList.xlsx
+++ b/CosmicTests/JLabCosmicRunList.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="578" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="622" uniqueCount="171">
   <si>
     <t>Table 1</t>
   </si>
@@ -451,16 +451,16 @@
     <t>Integrated:  5.4  17.5                                 In spec</t>
   </si>
   <si>
-    <t>Setup 2.  New higher HV run.  Trying for ADC peak of 600</t>
+    <t>Setup 2.  New higher HV run.  Trying for ADC peak of 600. H1=1649= H2=1614 M1=1422 M2=1541 L1=1489 L2=1570</t>
   </si>
   <si>
     <t>Integrated:  5.0  16.3                                 In spec</t>
   </si>
   <si>
-    <t>Setup 2.  New higher HV run.  Trying for ADC peak of 850</t>
+    <t>Setup 2.  New higher HV run.  Trying for ADC peak of 700. H1=1684 H2=1651 M1=1451 M2=1575 L1=1510 L2=1604</t>
   </si>
   <si>
-    <t>Setup 2.  New higher HV run.  Trying for ADC peak of 700</t>
+    <t>Setup 2.  New higher HV run.  Trying for ADC peak of 850. H1=1729 H2=1698 M1=1488 M2=1617 L1=1529 L2=1648</t>
   </si>
   <si>
     <t>212 th</t>
@@ -482,6 +482,57 @@
   </si>
   <si>
     <t>Integrated:  6.5  21.1                                 In spec</t>
+  </si>
+  <si>
+    <t>288 th</t>
+  </si>
+  <si>
+    <t>Integrated:  6.7  21.5                                 In spec</t>
+  </si>
+  <si>
+    <t>Setup 2.  Nominal HV run. H1=1512 H2=1464 M1=1295 M2=1340 L1=1412 L2=1318</t>
+  </si>
+  <si>
+    <t>Integrated:  6.4  20.7                                 In spec</t>
+  </si>
+  <si>
+    <t>Setup 2.  New higher HV run.  Trying for ADC peak of 700. H1=1592 H2=1533 M1=1361 M2=1407 L1=1486 L2=1386</t>
+  </si>
+  <si>
+    <t>32 th</t>
+  </si>
+  <si>
+    <t>Integrated:  6.7  21.7                                 In spec</t>
+  </si>
+  <si>
+    <t>Setup 2.  New higher HV run.  Trying for ADC peak of 900. H1=1652 H2=1585 M1=1410 M2=1457 L1=1541 L2=1436</t>
+  </si>
+  <si>
+    <t>Integrated:  7.0  22.8                                 In spec</t>
+  </si>
+  <si>
+    <t>Setup 2.  New higher HV run.  Trying for ADC peak of 1400. H1=1757 H2=1676 M1=1496 M2=1545 L1=1638 L2=1525</t>
+  </si>
+  <si>
+    <t>Integrated:  6.6  21.2                                 In spec</t>
+  </si>
+  <si>
+    <t>Setup 2.  Nominal HV run.  H1=1301 H2=1455 M1=1340 M2=1306 L1=1288 L2=1358</t>
+  </si>
+  <si>
+    <t>Integrated:  …  24.6                                 In spec</t>
+  </si>
+  <si>
+    <t>Setup 2.  New higher HV run.  Trying for ADC peak of 2500. H1=1621 H2=1774 M1=1666 M2=1610 L1=1611 L2=1673</t>
+  </si>
+  <si>
+    <t>38 th</t>
+  </si>
+  <si>
+    <t>Integrated:  8.5  27.4                                 In spec</t>
+  </si>
+  <si>
+    <t>Setup 2.  New higher HV run.  Trying for ADC peak of 4000. H1=1714 H2=1867 M1=1761 M2=1699 L1=1705 L2=1765</t>
   </si>
 </sst>
 </file>
@@ -629,7 +680,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="62">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -874,6 +925,10 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
@@ -951,27 +1006,27 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="true"/>
   </sheetPr>
-  <dimension ref="A1:IZ86"/>
+  <dimension ref="A1:IZ91"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="N54" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O64" activeCellId="0" sqref="O64"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="M66" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="M75" activeCellId="0" sqref="M75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="33.1222222222222"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="1" width="23.2259259259259"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="20.1851851851852"/>
-    <col collapsed="false" hidden="false" max="9" min="5" style="1" width="33.1222222222222"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="68.9888888888889"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="119.259259259259"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="65.6555555555556"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="202.355555555556"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="26.7518518518519"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="33.1222222222222"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="2" width="33.1222222222222"/>
-    <col collapsed="false" hidden="false" max="260" min="17" style="1" width="33.1222222222222"/>
-    <col collapsed="false" hidden="false" max="1025" min="261" style="0" width="11.0740740740741"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="41.2555555555556"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="1" width="28.6148148148148"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="24.8888888888889"/>
+    <col collapsed="false" hidden="false" max="9" min="5" style="1" width="41.2555555555556"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="86.3333333333333"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="149.833333333333"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="82.1185185185185"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="91.8481481481482"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="33.1222222222222"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="41.2555555555556"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="2" width="41.2555555555556"/>
+    <col collapsed="false" hidden="false" max="260" min="17" style="1" width="41.2555555555556"/>
+    <col collapsed="false" hidden="false" max="1025" min="261" style="0" width="9.6037037037037"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="19" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -21349,41 +21404,2011 @@
       <c r="IY84" s="46"/>
       <c r="IZ84" s="46"/>
     </row>
-    <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="16" t="n">
+    <row r="85" s="61" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="42" t="n">
         <v>85</v>
       </c>
-      <c r="B85" s="9"/>
-      <c r="C85" s="9"/>
-      <c r="D85" s="11"/>
-      <c r="E85" s="11"/>
-      <c r="F85" s="11"/>
-      <c r="G85" s="11" t="n">
+      <c r="B85" s="58" t="n">
+        <v>41008</v>
+      </c>
+      <c r="C85" s="58" t="n">
+        <v>41009</v>
+      </c>
+      <c r="D85" s="59" t="n">
+        <v>900</v>
+      </c>
+      <c r="E85" s="59" t="s">
+        <v>154</v>
+      </c>
+      <c r="F85" s="59" t="n">
+        <v>1</v>
+      </c>
+      <c r="G85" s="59" t="n">
         <v>5</v>
       </c>
-      <c r="H85" s="11"/>
-      <c r="I85" s="25"/>
-      <c r="J85" s="13"/>
-      <c r="K85" s="13"/>
-      <c r="L85" s="13"/>
-      <c r="M85" s="14"/>
-      <c r="N85" s="14"/>
+      <c r="H85" s="59" t="s">
+        <v>103</v>
+      </c>
+      <c r="I85" s="42" t="s">
+        <v>18</v>
+      </c>
+      <c r="J85" s="55" t="s">
+        <v>19</v>
+      </c>
+      <c r="K85" s="55" t="s">
+        <v>29</v>
+      </c>
+      <c r="L85" s="55" t="s">
+        <v>155</v>
+      </c>
+      <c r="M85" s="60" t="s">
+        <v>156</v>
+      </c>
+      <c r="N85" s="60"/>
+      <c r="O85" s="46"/>
+      <c r="P85" s="47"/>
+      <c r="Q85" s="46"/>
+      <c r="R85" s="46"/>
+      <c r="S85" s="46"/>
+      <c r="T85" s="46"/>
+      <c r="U85" s="46"/>
+      <c r="V85" s="46"/>
+      <c r="W85" s="46"/>
+      <c r="X85" s="46"/>
+      <c r="Y85" s="46"/>
+      <c r="Z85" s="46"/>
+      <c r="AA85" s="46"/>
+      <c r="AB85" s="46"/>
+      <c r="AC85" s="46"/>
+      <c r="AD85" s="46"/>
+      <c r="AE85" s="46"/>
+      <c r="AF85" s="46"/>
+      <c r="AG85" s="46"/>
+      <c r="AH85" s="46"/>
+      <c r="AI85" s="46"/>
+      <c r="AJ85" s="46"/>
+      <c r="AK85" s="46"/>
+      <c r="AL85" s="46"/>
+      <c r="AM85" s="46"/>
+      <c r="AN85" s="46"/>
+      <c r="AO85" s="46"/>
+      <c r="AP85" s="46"/>
+      <c r="AQ85" s="46"/>
+      <c r="AR85" s="46"/>
+      <c r="AS85" s="46"/>
+      <c r="AT85" s="46"/>
+      <c r="AU85" s="46"/>
+      <c r="AV85" s="46"/>
+      <c r="AW85" s="46"/>
+      <c r="AX85" s="46"/>
+      <c r="AY85" s="46"/>
+      <c r="AZ85" s="46"/>
+      <c r="BA85" s="46"/>
+      <c r="BB85" s="46"/>
+      <c r="BC85" s="46"/>
+      <c r="BD85" s="46"/>
+      <c r="BE85" s="46"/>
+      <c r="BF85" s="46"/>
+      <c r="BG85" s="46"/>
+      <c r="BH85" s="46"/>
+      <c r="BI85" s="46"/>
+      <c r="BJ85" s="46"/>
+      <c r="BK85" s="46"/>
+      <c r="BL85" s="46"/>
+      <c r="BM85" s="46"/>
+      <c r="BN85" s="46"/>
+      <c r="BO85" s="46"/>
+      <c r="BP85" s="46"/>
+      <c r="BQ85" s="46"/>
+      <c r="BR85" s="46"/>
+      <c r="BS85" s="46"/>
+      <c r="BT85" s="46"/>
+      <c r="BU85" s="46"/>
+      <c r="BV85" s="46"/>
+      <c r="BW85" s="46"/>
+      <c r="BX85" s="46"/>
+      <c r="BY85" s="46"/>
+      <c r="BZ85" s="46"/>
+      <c r="CA85" s="46"/>
+      <c r="CB85" s="46"/>
+      <c r="CC85" s="46"/>
+      <c r="CD85" s="46"/>
+      <c r="CE85" s="46"/>
+      <c r="CF85" s="46"/>
+      <c r="CG85" s="46"/>
+      <c r="CH85" s="46"/>
+      <c r="CI85" s="46"/>
+      <c r="CJ85" s="46"/>
+      <c r="CK85" s="46"/>
+      <c r="CL85" s="46"/>
+      <c r="CM85" s="46"/>
+      <c r="CN85" s="46"/>
+      <c r="CO85" s="46"/>
+      <c r="CP85" s="46"/>
+      <c r="CQ85" s="46"/>
+      <c r="CR85" s="46"/>
+      <c r="CS85" s="46"/>
+      <c r="CT85" s="46"/>
+      <c r="CU85" s="46"/>
+      <c r="CV85" s="46"/>
+      <c r="CW85" s="46"/>
+      <c r="CX85" s="46"/>
+      <c r="CY85" s="46"/>
+      <c r="CZ85" s="46"/>
+      <c r="DA85" s="46"/>
+      <c r="DB85" s="46"/>
+      <c r="DC85" s="46"/>
+      <c r="DD85" s="46"/>
+      <c r="DE85" s="46"/>
+      <c r="DF85" s="46"/>
+      <c r="DG85" s="46"/>
+      <c r="DH85" s="46"/>
+      <c r="DI85" s="46"/>
+      <c r="DJ85" s="46"/>
+      <c r="DK85" s="46"/>
+      <c r="DL85" s="46"/>
+      <c r="DM85" s="46"/>
+      <c r="DN85" s="46"/>
+      <c r="DO85" s="46"/>
+      <c r="DP85" s="46"/>
+      <c r="DQ85" s="46"/>
+      <c r="DR85" s="46"/>
+      <c r="DS85" s="46"/>
+      <c r="DT85" s="46"/>
+      <c r="DU85" s="46"/>
+      <c r="DV85" s="46"/>
+      <c r="DW85" s="46"/>
+      <c r="DX85" s="46"/>
+      <c r="DY85" s="46"/>
+      <c r="DZ85" s="46"/>
+      <c r="EA85" s="46"/>
+      <c r="EB85" s="46"/>
+      <c r="EC85" s="46"/>
+      <c r="ED85" s="46"/>
+      <c r="EE85" s="46"/>
+      <c r="EF85" s="46"/>
+      <c r="EG85" s="46"/>
+      <c r="EH85" s="46"/>
+      <c r="EI85" s="46"/>
+      <c r="EJ85" s="46"/>
+      <c r="EK85" s="46"/>
+      <c r="EL85" s="46"/>
+      <c r="EM85" s="46"/>
+      <c r="EN85" s="46"/>
+      <c r="EO85" s="46"/>
+      <c r="EP85" s="46"/>
+      <c r="EQ85" s="46"/>
+      <c r="ER85" s="46"/>
+      <c r="ES85" s="46"/>
+      <c r="ET85" s="46"/>
+      <c r="EU85" s="46"/>
+      <c r="EV85" s="46"/>
+      <c r="EW85" s="46"/>
+      <c r="EX85" s="46"/>
+      <c r="EY85" s="46"/>
+      <c r="EZ85" s="46"/>
+      <c r="FA85" s="46"/>
+      <c r="FB85" s="46"/>
+      <c r="FC85" s="46"/>
+      <c r="FD85" s="46"/>
+      <c r="FE85" s="46"/>
+      <c r="FF85" s="46"/>
+      <c r="FG85" s="46"/>
+      <c r="FH85" s="46"/>
+      <c r="FI85" s="46"/>
+      <c r="FJ85" s="46"/>
+      <c r="FK85" s="46"/>
+      <c r="FL85" s="46"/>
+      <c r="FM85" s="46"/>
+      <c r="FN85" s="46"/>
+      <c r="FO85" s="46"/>
+      <c r="FP85" s="46"/>
+      <c r="FQ85" s="46"/>
+      <c r="FR85" s="46"/>
+      <c r="FS85" s="46"/>
+      <c r="FT85" s="46"/>
+      <c r="FU85" s="46"/>
+      <c r="FV85" s="46"/>
+      <c r="FW85" s="46"/>
+      <c r="FX85" s="46"/>
+      <c r="FY85" s="46"/>
+      <c r="FZ85" s="46"/>
+      <c r="GA85" s="46"/>
+      <c r="GB85" s="46"/>
+      <c r="GC85" s="46"/>
+      <c r="GD85" s="46"/>
+      <c r="GE85" s="46"/>
+      <c r="GF85" s="46"/>
+      <c r="GG85" s="46"/>
+      <c r="GH85" s="46"/>
+      <c r="GI85" s="46"/>
+      <c r="GJ85" s="46"/>
+      <c r="GK85" s="46"/>
+      <c r="GL85" s="46"/>
+      <c r="GM85" s="46"/>
+      <c r="GN85" s="46"/>
+      <c r="GO85" s="46"/>
+      <c r="GP85" s="46"/>
+      <c r="GQ85" s="46"/>
+      <c r="GR85" s="46"/>
+      <c r="GS85" s="46"/>
+      <c r="GT85" s="46"/>
+      <c r="GU85" s="46"/>
+      <c r="GV85" s="46"/>
+      <c r="GW85" s="46"/>
+      <c r="GX85" s="46"/>
+      <c r="GY85" s="46"/>
+      <c r="GZ85" s="46"/>
+      <c r="HA85" s="46"/>
+      <c r="HB85" s="46"/>
+      <c r="HC85" s="46"/>
+      <c r="HD85" s="46"/>
+      <c r="HE85" s="46"/>
+      <c r="HF85" s="46"/>
+      <c r="HG85" s="46"/>
+      <c r="HH85" s="46"/>
+      <c r="HI85" s="46"/>
+      <c r="HJ85" s="46"/>
+      <c r="HK85" s="46"/>
+      <c r="HL85" s="46"/>
+      <c r="HM85" s="46"/>
+      <c r="HN85" s="46"/>
+      <c r="HO85" s="46"/>
+      <c r="HP85" s="46"/>
+      <c r="HQ85" s="46"/>
+      <c r="HR85" s="46"/>
+      <c r="HS85" s="46"/>
+      <c r="HT85" s="46"/>
+      <c r="HU85" s="46"/>
+      <c r="HV85" s="46"/>
+      <c r="HW85" s="46"/>
+      <c r="HX85" s="46"/>
+      <c r="HY85" s="46"/>
+      <c r="HZ85" s="46"/>
+      <c r="IA85" s="46"/>
+      <c r="IB85" s="46"/>
+      <c r="IC85" s="46"/>
+      <c r="ID85" s="46"/>
+      <c r="IE85" s="46"/>
+      <c r="IF85" s="46"/>
+      <c r="IG85" s="46"/>
+      <c r="IH85" s="46"/>
+      <c r="II85" s="46"/>
+      <c r="IJ85" s="46"/>
+      <c r="IK85" s="46"/>
+      <c r="IL85" s="46"/>
+      <c r="IM85" s="46"/>
+      <c r="IN85" s="46"/>
+      <c r="IO85" s="46"/>
+      <c r="IP85" s="46"/>
+      <c r="IQ85" s="46"/>
+      <c r="IR85" s="46"/>
+      <c r="IS85" s="46"/>
+      <c r="IT85" s="46"/>
+      <c r="IU85" s="46"/>
+      <c r="IV85" s="46"/>
+      <c r="IW85" s="46"/>
+      <c r="IX85" s="46"/>
+      <c r="IY85" s="46"/>
+      <c r="IZ85" s="46"/>
     </row>
-    <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="16"/>
-      <c r="B86" s="9"/>
-      <c r="C86" s="9"/>
-      <c r="D86" s="11"/>
-      <c r="E86" s="11"/>
-      <c r="F86" s="11"/>
-      <c r="G86" s="11"/>
-      <c r="H86" s="11"/>
-      <c r="I86" s="25"/>
-      <c r="J86" s="13"/>
-      <c r="K86" s="13"/>
-      <c r="L86" s="13"/>
-      <c r="M86" s="14"/>
-      <c r="N86" s="14"/>
+    <row r="86" s="61" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="42" t="n">
+        <v>86</v>
+      </c>
+      <c r="B86" s="58" t="n">
+        <v>41009</v>
+      </c>
+      <c r="C86" s="58" t="n">
+        <v>41009</v>
+      </c>
+      <c r="D86" s="59" t="n">
+        <v>69</v>
+      </c>
+      <c r="E86" s="59" t="s">
+        <v>98</v>
+      </c>
+      <c r="F86" s="59" t="n">
+        <v>1</v>
+      </c>
+      <c r="G86" s="59" t="n">
+        <v>5</v>
+      </c>
+      <c r="H86" s="59" t="s">
+        <v>103</v>
+      </c>
+      <c r="I86" s="42" t="s">
+        <v>18</v>
+      </c>
+      <c r="J86" s="55" t="s">
+        <v>19</v>
+      </c>
+      <c r="K86" s="55" t="s">
+        <v>29</v>
+      </c>
+      <c r="L86" s="55" t="s">
+        <v>157</v>
+      </c>
+      <c r="M86" s="60" t="s">
+        <v>158</v>
+      </c>
+      <c r="N86" s="60"/>
+      <c r="O86" s="46"/>
+      <c r="P86" s="47"/>
+      <c r="Q86" s="46"/>
+      <c r="R86" s="46"/>
+      <c r="S86" s="46"/>
+      <c r="T86" s="46"/>
+      <c r="U86" s="46"/>
+      <c r="V86" s="46"/>
+      <c r="W86" s="46"/>
+      <c r="X86" s="46"/>
+      <c r="Y86" s="46"/>
+      <c r="Z86" s="46"/>
+      <c r="AA86" s="46"/>
+      <c r="AB86" s="46"/>
+      <c r="AC86" s="46"/>
+      <c r="AD86" s="46"/>
+      <c r="AE86" s="46"/>
+      <c r="AF86" s="46"/>
+      <c r="AG86" s="46"/>
+      <c r="AH86" s="46"/>
+      <c r="AI86" s="46"/>
+      <c r="AJ86" s="46"/>
+      <c r="AK86" s="46"/>
+      <c r="AL86" s="46"/>
+      <c r="AM86" s="46"/>
+      <c r="AN86" s="46"/>
+      <c r="AO86" s="46"/>
+      <c r="AP86" s="46"/>
+      <c r="AQ86" s="46"/>
+      <c r="AR86" s="46"/>
+      <c r="AS86" s="46"/>
+      <c r="AT86" s="46"/>
+      <c r="AU86" s="46"/>
+      <c r="AV86" s="46"/>
+      <c r="AW86" s="46"/>
+      <c r="AX86" s="46"/>
+      <c r="AY86" s="46"/>
+      <c r="AZ86" s="46"/>
+      <c r="BA86" s="46"/>
+      <c r="BB86" s="46"/>
+      <c r="BC86" s="46"/>
+      <c r="BD86" s="46"/>
+      <c r="BE86" s="46"/>
+      <c r="BF86" s="46"/>
+      <c r="BG86" s="46"/>
+      <c r="BH86" s="46"/>
+      <c r="BI86" s="46"/>
+      <c r="BJ86" s="46"/>
+      <c r="BK86" s="46"/>
+      <c r="BL86" s="46"/>
+      <c r="BM86" s="46"/>
+      <c r="BN86" s="46"/>
+      <c r="BO86" s="46"/>
+      <c r="BP86" s="46"/>
+      <c r="BQ86" s="46"/>
+      <c r="BR86" s="46"/>
+      <c r="BS86" s="46"/>
+      <c r="BT86" s="46"/>
+      <c r="BU86" s="46"/>
+      <c r="BV86" s="46"/>
+      <c r="BW86" s="46"/>
+      <c r="BX86" s="46"/>
+      <c r="BY86" s="46"/>
+      <c r="BZ86" s="46"/>
+      <c r="CA86" s="46"/>
+      <c r="CB86" s="46"/>
+      <c r="CC86" s="46"/>
+      <c r="CD86" s="46"/>
+      <c r="CE86" s="46"/>
+      <c r="CF86" s="46"/>
+      <c r="CG86" s="46"/>
+      <c r="CH86" s="46"/>
+      <c r="CI86" s="46"/>
+      <c r="CJ86" s="46"/>
+      <c r="CK86" s="46"/>
+      <c r="CL86" s="46"/>
+      <c r="CM86" s="46"/>
+      <c r="CN86" s="46"/>
+      <c r="CO86" s="46"/>
+      <c r="CP86" s="46"/>
+      <c r="CQ86" s="46"/>
+      <c r="CR86" s="46"/>
+      <c r="CS86" s="46"/>
+      <c r="CT86" s="46"/>
+      <c r="CU86" s="46"/>
+      <c r="CV86" s="46"/>
+      <c r="CW86" s="46"/>
+      <c r="CX86" s="46"/>
+      <c r="CY86" s="46"/>
+      <c r="CZ86" s="46"/>
+      <c r="DA86" s="46"/>
+      <c r="DB86" s="46"/>
+      <c r="DC86" s="46"/>
+      <c r="DD86" s="46"/>
+      <c r="DE86" s="46"/>
+      <c r="DF86" s="46"/>
+      <c r="DG86" s="46"/>
+      <c r="DH86" s="46"/>
+      <c r="DI86" s="46"/>
+      <c r="DJ86" s="46"/>
+      <c r="DK86" s="46"/>
+      <c r="DL86" s="46"/>
+      <c r="DM86" s="46"/>
+      <c r="DN86" s="46"/>
+      <c r="DO86" s="46"/>
+      <c r="DP86" s="46"/>
+      <c r="DQ86" s="46"/>
+      <c r="DR86" s="46"/>
+      <c r="DS86" s="46"/>
+      <c r="DT86" s="46"/>
+      <c r="DU86" s="46"/>
+      <c r="DV86" s="46"/>
+      <c r="DW86" s="46"/>
+      <c r="DX86" s="46"/>
+      <c r="DY86" s="46"/>
+      <c r="DZ86" s="46"/>
+      <c r="EA86" s="46"/>
+      <c r="EB86" s="46"/>
+      <c r="EC86" s="46"/>
+      <c r="ED86" s="46"/>
+      <c r="EE86" s="46"/>
+      <c r="EF86" s="46"/>
+      <c r="EG86" s="46"/>
+      <c r="EH86" s="46"/>
+      <c r="EI86" s="46"/>
+      <c r="EJ86" s="46"/>
+      <c r="EK86" s="46"/>
+      <c r="EL86" s="46"/>
+      <c r="EM86" s="46"/>
+      <c r="EN86" s="46"/>
+      <c r="EO86" s="46"/>
+      <c r="EP86" s="46"/>
+      <c r="EQ86" s="46"/>
+      <c r="ER86" s="46"/>
+      <c r="ES86" s="46"/>
+      <c r="ET86" s="46"/>
+      <c r="EU86" s="46"/>
+      <c r="EV86" s="46"/>
+      <c r="EW86" s="46"/>
+      <c r="EX86" s="46"/>
+      <c r="EY86" s="46"/>
+      <c r="EZ86" s="46"/>
+      <c r="FA86" s="46"/>
+      <c r="FB86" s="46"/>
+      <c r="FC86" s="46"/>
+      <c r="FD86" s="46"/>
+      <c r="FE86" s="46"/>
+      <c r="FF86" s="46"/>
+      <c r="FG86" s="46"/>
+      <c r="FH86" s="46"/>
+      <c r="FI86" s="46"/>
+      <c r="FJ86" s="46"/>
+      <c r="FK86" s="46"/>
+      <c r="FL86" s="46"/>
+      <c r="FM86" s="46"/>
+      <c r="FN86" s="46"/>
+      <c r="FO86" s="46"/>
+      <c r="FP86" s="46"/>
+      <c r="FQ86" s="46"/>
+      <c r="FR86" s="46"/>
+      <c r="FS86" s="46"/>
+      <c r="FT86" s="46"/>
+      <c r="FU86" s="46"/>
+      <c r="FV86" s="46"/>
+      <c r="FW86" s="46"/>
+      <c r="FX86" s="46"/>
+      <c r="FY86" s="46"/>
+      <c r="FZ86" s="46"/>
+      <c r="GA86" s="46"/>
+      <c r="GB86" s="46"/>
+      <c r="GC86" s="46"/>
+      <c r="GD86" s="46"/>
+      <c r="GE86" s="46"/>
+      <c r="GF86" s="46"/>
+      <c r="GG86" s="46"/>
+      <c r="GH86" s="46"/>
+      <c r="GI86" s="46"/>
+      <c r="GJ86" s="46"/>
+      <c r="GK86" s="46"/>
+      <c r="GL86" s="46"/>
+      <c r="GM86" s="46"/>
+      <c r="GN86" s="46"/>
+      <c r="GO86" s="46"/>
+      <c r="GP86" s="46"/>
+      <c r="GQ86" s="46"/>
+      <c r="GR86" s="46"/>
+      <c r="GS86" s="46"/>
+      <c r="GT86" s="46"/>
+      <c r="GU86" s="46"/>
+      <c r="GV86" s="46"/>
+      <c r="GW86" s="46"/>
+      <c r="GX86" s="46"/>
+      <c r="GY86" s="46"/>
+      <c r="GZ86" s="46"/>
+      <c r="HA86" s="46"/>
+      <c r="HB86" s="46"/>
+      <c r="HC86" s="46"/>
+      <c r="HD86" s="46"/>
+      <c r="HE86" s="46"/>
+      <c r="HF86" s="46"/>
+      <c r="HG86" s="46"/>
+      <c r="HH86" s="46"/>
+      <c r="HI86" s="46"/>
+      <c r="HJ86" s="46"/>
+      <c r="HK86" s="46"/>
+      <c r="HL86" s="46"/>
+      <c r="HM86" s="46"/>
+      <c r="HN86" s="46"/>
+      <c r="HO86" s="46"/>
+      <c r="HP86" s="46"/>
+      <c r="HQ86" s="46"/>
+      <c r="HR86" s="46"/>
+      <c r="HS86" s="46"/>
+      <c r="HT86" s="46"/>
+      <c r="HU86" s="46"/>
+      <c r="HV86" s="46"/>
+      <c r="HW86" s="46"/>
+      <c r="HX86" s="46"/>
+      <c r="HY86" s="46"/>
+      <c r="HZ86" s="46"/>
+      <c r="IA86" s="46"/>
+      <c r="IB86" s="46"/>
+      <c r="IC86" s="46"/>
+      <c r="ID86" s="46"/>
+      <c r="IE86" s="46"/>
+      <c r="IF86" s="46"/>
+      <c r="IG86" s="46"/>
+      <c r="IH86" s="46"/>
+      <c r="II86" s="46"/>
+      <c r="IJ86" s="46"/>
+      <c r="IK86" s="46"/>
+      <c r="IL86" s="46"/>
+      <c r="IM86" s="46"/>
+      <c r="IN86" s="46"/>
+      <c r="IO86" s="46"/>
+      <c r="IP86" s="46"/>
+      <c r="IQ86" s="46"/>
+      <c r="IR86" s="46"/>
+      <c r="IS86" s="46"/>
+      <c r="IT86" s="46"/>
+      <c r="IU86" s="46"/>
+      <c r="IV86" s="46"/>
+      <c r="IW86" s="46"/>
+      <c r="IX86" s="46"/>
+      <c r="IY86" s="46"/>
+      <c r="IZ86" s="46"/>
+    </row>
+    <row r="87" s="61" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="42" t="n">
+        <v>87</v>
+      </c>
+      <c r="B87" s="58" t="n">
+        <v>41009</v>
+      </c>
+      <c r="C87" s="58" t="n">
+        <v>41009</v>
+      </c>
+      <c r="D87" s="59" t="n">
+        <v>101</v>
+      </c>
+      <c r="E87" s="59" t="s">
+        <v>159</v>
+      </c>
+      <c r="F87" s="59" t="n">
+        <v>1</v>
+      </c>
+      <c r="G87" s="59" t="n">
+        <v>5</v>
+      </c>
+      <c r="H87" s="59" t="s">
+        <v>103</v>
+      </c>
+      <c r="I87" s="42"/>
+      <c r="J87" s="55" t="s">
+        <v>19</v>
+      </c>
+      <c r="K87" s="55" t="s">
+        <v>29</v>
+      </c>
+      <c r="L87" s="55" t="s">
+        <v>160</v>
+      </c>
+      <c r="M87" s="60" t="s">
+        <v>161</v>
+      </c>
+      <c r="N87" s="60"/>
+      <c r="O87" s="46"/>
+      <c r="P87" s="47"/>
+      <c r="Q87" s="46"/>
+      <c r="R87" s="46"/>
+      <c r="S87" s="46"/>
+      <c r="T87" s="46"/>
+      <c r="U87" s="46"/>
+      <c r="V87" s="46"/>
+      <c r="W87" s="46"/>
+      <c r="X87" s="46"/>
+      <c r="Y87" s="46"/>
+      <c r="Z87" s="46"/>
+      <c r="AA87" s="46"/>
+      <c r="AB87" s="46"/>
+      <c r="AC87" s="46"/>
+      <c r="AD87" s="46"/>
+      <c r="AE87" s="46"/>
+      <c r="AF87" s="46"/>
+      <c r="AG87" s="46"/>
+      <c r="AH87" s="46"/>
+      <c r="AI87" s="46"/>
+      <c r="AJ87" s="46"/>
+      <c r="AK87" s="46"/>
+      <c r="AL87" s="46"/>
+      <c r="AM87" s="46"/>
+      <c r="AN87" s="46"/>
+      <c r="AO87" s="46"/>
+      <c r="AP87" s="46"/>
+      <c r="AQ87" s="46"/>
+      <c r="AR87" s="46"/>
+      <c r="AS87" s="46"/>
+      <c r="AT87" s="46"/>
+      <c r="AU87" s="46"/>
+      <c r="AV87" s="46"/>
+      <c r="AW87" s="46"/>
+      <c r="AX87" s="46"/>
+      <c r="AY87" s="46"/>
+      <c r="AZ87" s="46"/>
+      <c r="BA87" s="46"/>
+      <c r="BB87" s="46"/>
+      <c r="BC87" s="46"/>
+      <c r="BD87" s="46"/>
+      <c r="BE87" s="46"/>
+      <c r="BF87" s="46"/>
+      <c r="BG87" s="46"/>
+      <c r="BH87" s="46"/>
+      <c r="BI87" s="46"/>
+      <c r="BJ87" s="46"/>
+      <c r="BK87" s="46"/>
+      <c r="BL87" s="46"/>
+      <c r="BM87" s="46"/>
+      <c r="BN87" s="46"/>
+      <c r="BO87" s="46"/>
+      <c r="BP87" s="46"/>
+      <c r="BQ87" s="46"/>
+      <c r="BR87" s="46"/>
+      <c r="BS87" s="46"/>
+      <c r="BT87" s="46"/>
+      <c r="BU87" s="46"/>
+      <c r="BV87" s="46"/>
+      <c r="BW87" s="46"/>
+      <c r="BX87" s="46"/>
+      <c r="BY87" s="46"/>
+      <c r="BZ87" s="46"/>
+      <c r="CA87" s="46"/>
+      <c r="CB87" s="46"/>
+      <c r="CC87" s="46"/>
+      <c r="CD87" s="46"/>
+      <c r="CE87" s="46"/>
+      <c r="CF87" s="46"/>
+      <c r="CG87" s="46"/>
+      <c r="CH87" s="46"/>
+      <c r="CI87" s="46"/>
+      <c r="CJ87" s="46"/>
+      <c r="CK87" s="46"/>
+      <c r="CL87" s="46"/>
+      <c r="CM87" s="46"/>
+      <c r="CN87" s="46"/>
+      <c r="CO87" s="46"/>
+      <c r="CP87" s="46"/>
+      <c r="CQ87" s="46"/>
+      <c r="CR87" s="46"/>
+      <c r="CS87" s="46"/>
+      <c r="CT87" s="46"/>
+      <c r="CU87" s="46"/>
+      <c r="CV87" s="46"/>
+      <c r="CW87" s="46"/>
+      <c r="CX87" s="46"/>
+      <c r="CY87" s="46"/>
+      <c r="CZ87" s="46"/>
+      <c r="DA87" s="46"/>
+      <c r="DB87" s="46"/>
+      <c r="DC87" s="46"/>
+      <c r="DD87" s="46"/>
+      <c r="DE87" s="46"/>
+      <c r="DF87" s="46"/>
+      <c r="DG87" s="46"/>
+      <c r="DH87" s="46"/>
+      <c r="DI87" s="46"/>
+      <c r="DJ87" s="46"/>
+      <c r="DK87" s="46"/>
+      <c r="DL87" s="46"/>
+      <c r="DM87" s="46"/>
+      <c r="DN87" s="46"/>
+      <c r="DO87" s="46"/>
+      <c r="DP87" s="46"/>
+      <c r="DQ87" s="46"/>
+      <c r="DR87" s="46"/>
+      <c r="DS87" s="46"/>
+      <c r="DT87" s="46"/>
+      <c r="DU87" s="46"/>
+      <c r="DV87" s="46"/>
+      <c r="DW87" s="46"/>
+      <c r="DX87" s="46"/>
+      <c r="DY87" s="46"/>
+      <c r="DZ87" s="46"/>
+      <c r="EA87" s="46"/>
+      <c r="EB87" s="46"/>
+      <c r="EC87" s="46"/>
+      <c r="ED87" s="46"/>
+      <c r="EE87" s="46"/>
+      <c r="EF87" s="46"/>
+      <c r="EG87" s="46"/>
+      <c r="EH87" s="46"/>
+      <c r="EI87" s="46"/>
+      <c r="EJ87" s="46"/>
+      <c r="EK87" s="46"/>
+      <c r="EL87" s="46"/>
+      <c r="EM87" s="46"/>
+      <c r="EN87" s="46"/>
+      <c r="EO87" s="46"/>
+      <c r="EP87" s="46"/>
+      <c r="EQ87" s="46"/>
+      <c r="ER87" s="46"/>
+      <c r="ES87" s="46"/>
+      <c r="ET87" s="46"/>
+      <c r="EU87" s="46"/>
+      <c r="EV87" s="46"/>
+      <c r="EW87" s="46"/>
+      <c r="EX87" s="46"/>
+      <c r="EY87" s="46"/>
+      <c r="EZ87" s="46"/>
+      <c r="FA87" s="46"/>
+      <c r="FB87" s="46"/>
+      <c r="FC87" s="46"/>
+      <c r="FD87" s="46"/>
+      <c r="FE87" s="46"/>
+      <c r="FF87" s="46"/>
+      <c r="FG87" s="46"/>
+      <c r="FH87" s="46"/>
+      <c r="FI87" s="46"/>
+      <c r="FJ87" s="46"/>
+      <c r="FK87" s="46"/>
+      <c r="FL87" s="46"/>
+      <c r="FM87" s="46"/>
+      <c r="FN87" s="46"/>
+      <c r="FO87" s="46"/>
+      <c r="FP87" s="46"/>
+      <c r="FQ87" s="46"/>
+      <c r="FR87" s="46"/>
+      <c r="FS87" s="46"/>
+      <c r="FT87" s="46"/>
+      <c r="FU87" s="46"/>
+      <c r="FV87" s="46"/>
+      <c r="FW87" s="46"/>
+      <c r="FX87" s="46"/>
+      <c r="FY87" s="46"/>
+      <c r="FZ87" s="46"/>
+      <c r="GA87" s="46"/>
+      <c r="GB87" s="46"/>
+      <c r="GC87" s="46"/>
+      <c r="GD87" s="46"/>
+      <c r="GE87" s="46"/>
+      <c r="GF87" s="46"/>
+      <c r="GG87" s="46"/>
+      <c r="GH87" s="46"/>
+      <c r="GI87" s="46"/>
+      <c r="GJ87" s="46"/>
+      <c r="GK87" s="46"/>
+      <c r="GL87" s="46"/>
+      <c r="GM87" s="46"/>
+      <c r="GN87" s="46"/>
+      <c r="GO87" s="46"/>
+      <c r="GP87" s="46"/>
+      <c r="GQ87" s="46"/>
+      <c r="GR87" s="46"/>
+      <c r="GS87" s="46"/>
+      <c r="GT87" s="46"/>
+      <c r="GU87" s="46"/>
+      <c r="GV87" s="46"/>
+      <c r="GW87" s="46"/>
+      <c r="GX87" s="46"/>
+      <c r="GY87" s="46"/>
+      <c r="GZ87" s="46"/>
+      <c r="HA87" s="46"/>
+      <c r="HB87" s="46"/>
+      <c r="HC87" s="46"/>
+      <c r="HD87" s="46"/>
+      <c r="HE87" s="46"/>
+      <c r="HF87" s="46"/>
+      <c r="HG87" s="46"/>
+      <c r="HH87" s="46"/>
+      <c r="HI87" s="46"/>
+      <c r="HJ87" s="46"/>
+      <c r="HK87" s="46"/>
+      <c r="HL87" s="46"/>
+      <c r="HM87" s="46"/>
+      <c r="HN87" s="46"/>
+      <c r="HO87" s="46"/>
+      <c r="HP87" s="46"/>
+      <c r="HQ87" s="46"/>
+      <c r="HR87" s="46"/>
+      <c r="HS87" s="46"/>
+      <c r="HT87" s="46"/>
+      <c r="HU87" s="46"/>
+      <c r="HV87" s="46"/>
+      <c r="HW87" s="46"/>
+      <c r="HX87" s="46"/>
+      <c r="HY87" s="46"/>
+      <c r="HZ87" s="46"/>
+      <c r="IA87" s="46"/>
+      <c r="IB87" s="46"/>
+      <c r="IC87" s="46"/>
+      <c r="ID87" s="46"/>
+      <c r="IE87" s="46"/>
+      <c r="IF87" s="46"/>
+      <c r="IG87" s="46"/>
+      <c r="IH87" s="46"/>
+      <c r="II87" s="46"/>
+      <c r="IJ87" s="46"/>
+      <c r="IK87" s="46"/>
+      <c r="IL87" s="46"/>
+      <c r="IM87" s="46"/>
+      <c r="IN87" s="46"/>
+      <c r="IO87" s="46"/>
+      <c r="IP87" s="46"/>
+      <c r="IQ87" s="46"/>
+      <c r="IR87" s="46"/>
+      <c r="IS87" s="46"/>
+      <c r="IT87" s="46"/>
+      <c r="IU87" s="46"/>
+      <c r="IV87" s="46"/>
+      <c r="IW87" s="46"/>
+      <c r="IX87" s="46"/>
+      <c r="IY87" s="46"/>
+      <c r="IZ87" s="46"/>
+    </row>
+    <row r="88" s="61" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="42" t="n">
+        <v>88</v>
+      </c>
+      <c r="B88" s="58" t="n">
+        <v>41009</v>
+      </c>
+      <c r="C88" s="58" t="n">
+        <v>41009</v>
+      </c>
+      <c r="D88" s="59" t="n">
+        <v>82</v>
+      </c>
+      <c r="E88" s="59" t="s">
+        <v>63</v>
+      </c>
+      <c r="F88" s="59" t="n">
+        <v>1</v>
+      </c>
+      <c r="G88" s="59" t="n">
+        <v>5</v>
+      </c>
+      <c r="H88" s="59" t="s">
+        <v>103</v>
+      </c>
+      <c r="I88" s="42"/>
+      <c r="J88" s="55" t="s">
+        <v>19</v>
+      </c>
+      <c r="K88" s="55" t="s">
+        <v>29</v>
+      </c>
+      <c r="L88" s="55" t="s">
+        <v>162</v>
+      </c>
+      <c r="M88" s="60" t="s">
+        <v>163</v>
+      </c>
+      <c r="N88" s="60"/>
+      <c r="O88" s="46"/>
+      <c r="P88" s="47"/>
+      <c r="Q88" s="46"/>
+      <c r="R88" s="46"/>
+      <c r="S88" s="46"/>
+      <c r="T88" s="46"/>
+      <c r="U88" s="46"/>
+      <c r="V88" s="46"/>
+      <c r="W88" s="46"/>
+      <c r="X88" s="46"/>
+      <c r="Y88" s="46"/>
+      <c r="Z88" s="46"/>
+      <c r="AA88" s="46"/>
+      <c r="AB88" s="46"/>
+      <c r="AC88" s="46"/>
+      <c r="AD88" s="46"/>
+      <c r="AE88" s="46"/>
+      <c r="AF88" s="46"/>
+      <c r="AG88" s="46"/>
+      <c r="AH88" s="46"/>
+      <c r="AI88" s="46"/>
+      <c r="AJ88" s="46"/>
+      <c r="AK88" s="46"/>
+      <c r="AL88" s="46"/>
+      <c r="AM88" s="46"/>
+      <c r="AN88" s="46"/>
+      <c r="AO88" s="46"/>
+      <c r="AP88" s="46"/>
+      <c r="AQ88" s="46"/>
+      <c r="AR88" s="46"/>
+      <c r="AS88" s="46"/>
+      <c r="AT88" s="46"/>
+      <c r="AU88" s="46"/>
+      <c r="AV88" s="46"/>
+      <c r="AW88" s="46"/>
+      <c r="AX88" s="46"/>
+      <c r="AY88" s="46"/>
+      <c r="AZ88" s="46"/>
+      <c r="BA88" s="46"/>
+      <c r="BB88" s="46"/>
+      <c r="BC88" s="46"/>
+      <c r="BD88" s="46"/>
+      <c r="BE88" s="46"/>
+      <c r="BF88" s="46"/>
+      <c r="BG88" s="46"/>
+      <c r="BH88" s="46"/>
+      <c r="BI88" s="46"/>
+      <c r="BJ88" s="46"/>
+      <c r="BK88" s="46"/>
+      <c r="BL88" s="46"/>
+      <c r="BM88" s="46"/>
+      <c r="BN88" s="46"/>
+      <c r="BO88" s="46"/>
+      <c r="BP88" s="46"/>
+      <c r="BQ88" s="46"/>
+      <c r="BR88" s="46"/>
+      <c r="BS88" s="46"/>
+      <c r="BT88" s="46"/>
+      <c r="BU88" s="46"/>
+      <c r="BV88" s="46"/>
+      <c r="BW88" s="46"/>
+      <c r="BX88" s="46"/>
+      <c r="BY88" s="46"/>
+      <c r="BZ88" s="46"/>
+      <c r="CA88" s="46"/>
+      <c r="CB88" s="46"/>
+      <c r="CC88" s="46"/>
+      <c r="CD88" s="46"/>
+      <c r="CE88" s="46"/>
+      <c r="CF88" s="46"/>
+      <c r="CG88" s="46"/>
+      <c r="CH88" s="46"/>
+      <c r="CI88" s="46"/>
+      <c r="CJ88" s="46"/>
+      <c r="CK88" s="46"/>
+      <c r="CL88" s="46"/>
+      <c r="CM88" s="46"/>
+      <c r="CN88" s="46"/>
+      <c r="CO88" s="46"/>
+      <c r="CP88" s="46"/>
+      <c r="CQ88" s="46"/>
+      <c r="CR88" s="46"/>
+      <c r="CS88" s="46"/>
+      <c r="CT88" s="46"/>
+      <c r="CU88" s="46"/>
+      <c r="CV88" s="46"/>
+      <c r="CW88" s="46"/>
+      <c r="CX88" s="46"/>
+      <c r="CY88" s="46"/>
+      <c r="CZ88" s="46"/>
+      <c r="DA88" s="46"/>
+      <c r="DB88" s="46"/>
+      <c r="DC88" s="46"/>
+      <c r="DD88" s="46"/>
+      <c r="DE88" s="46"/>
+      <c r="DF88" s="46"/>
+      <c r="DG88" s="46"/>
+      <c r="DH88" s="46"/>
+      <c r="DI88" s="46"/>
+      <c r="DJ88" s="46"/>
+      <c r="DK88" s="46"/>
+      <c r="DL88" s="46"/>
+      <c r="DM88" s="46"/>
+      <c r="DN88" s="46"/>
+      <c r="DO88" s="46"/>
+      <c r="DP88" s="46"/>
+      <c r="DQ88" s="46"/>
+      <c r="DR88" s="46"/>
+      <c r="DS88" s="46"/>
+      <c r="DT88" s="46"/>
+      <c r="DU88" s="46"/>
+      <c r="DV88" s="46"/>
+      <c r="DW88" s="46"/>
+      <c r="DX88" s="46"/>
+      <c r="DY88" s="46"/>
+      <c r="DZ88" s="46"/>
+      <c r="EA88" s="46"/>
+      <c r="EB88" s="46"/>
+      <c r="EC88" s="46"/>
+      <c r="ED88" s="46"/>
+      <c r="EE88" s="46"/>
+      <c r="EF88" s="46"/>
+      <c r="EG88" s="46"/>
+      <c r="EH88" s="46"/>
+      <c r="EI88" s="46"/>
+      <c r="EJ88" s="46"/>
+      <c r="EK88" s="46"/>
+      <c r="EL88" s="46"/>
+      <c r="EM88" s="46"/>
+      <c r="EN88" s="46"/>
+      <c r="EO88" s="46"/>
+      <c r="EP88" s="46"/>
+      <c r="EQ88" s="46"/>
+      <c r="ER88" s="46"/>
+      <c r="ES88" s="46"/>
+      <c r="ET88" s="46"/>
+      <c r="EU88" s="46"/>
+      <c r="EV88" s="46"/>
+      <c r="EW88" s="46"/>
+      <c r="EX88" s="46"/>
+      <c r="EY88" s="46"/>
+      <c r="EZ88" s="46"/>
+      <c r="FA88" s="46"/>
+      <c r="FB88" s="46"/>
+      <c r="FC88" s="46"/>
+      <c r="FD88" s="46"/>
+      <c r="FE88" s="46"/>
+      <c r="FF88" s="46"/>
+      <c r="FG88" s="46"/>
+      <c r="FH88" s="46"/>
+      <c r="FI88" s="46"/>
+      <c r="FJ88" s="46"/>
+      <c r="FK88" s="46"/>
+      <c r="FL88" s="46"/>
+      <c r="FM88" s="46"/>
+      <c r="FN88" s="46"/>
+      <c r="FO88" s="46"/>
+      <c r="FP88" s="46"/>
+      <c r="FQ88" s="46"/>
+      <c r="FR88" s="46"/>
+      <c r="FS88" s="46"/>
+      <c r="FT88" s="46"/>
+      <c r="FU88" s="46"/>
+      <c r="FV88" s="46"/>
+      <c r="FW88" s="46"/>
+      <c r="FX88" s="46"/>
+      <c r="FY88" s="46"/>
+      <c r="FZ88" s="46"/>
+      <c r="GA88" s="46"/>
+      <c r="GB88" s="46"/>
+      <c r="GC88" s="46"/>
+      <c r="GD88" s="46"/>
+      <c r="GE88" s="46"/>
+      <c r="GF88" s="46"/>
+      <c r="GG88" s="46"/>
+      <c r="GH88" s="46"/>
+      <c r="GI88" s="46"/>
+      <c r="GJ88" s="46"/>
+      <c r="GK88" s="46"/>
+      <c r="GL88" s="46"/>
+      <c r="GM88" s="46"/>
+      <c r="GN88" s="46"/>
+      <c r="GO88" s="46"/>
+      <c r="GP88" s="46"/>
+      <c r="GQ88" s="46"/>
+      <c r="GR88" s="46"/>
+      <c r="GS88" s="46"/>
+      <c r="GT88" s="46"/>
+      <c r="GU88" s="46"/>
+      <c r="GV88" s="46"/>
+      <c r="GW88" s="46"/>
+      <c r="GX88" s="46"/>
+      <c r="GY88" s="46"/>
+      <c r="GZ88" s="46"/>
+      <c r="HA88" s="46"/>
+      <c r="HB88" s="46"/>
+      <c r="HC88" s="46"/>
+      <c r="HD88" s="46"/>
+      <c r="HE88" s="46"/>
+      <c r="HF88" s="46"/>
+      <c r="HG88" s="46"/>
+      <c r="HH88" s="46"/>
+      <c r="HI88" s="46"/>
+      <c r="HJ88" s="46"/>
+      <c r="HK88" s="46"/>
+      <c r="HL88" s="46"/>
+      <c r="HM88" s="46"/>
+      <c r="HN88" s="46"/>
+      <c r="HO88" s="46"/>
+      <c r="HP88" s="46"/>
+      <c r="HQ88" s="46"/>
+      <c r="HR88" s="46"/>
+      <c r="HS88" s="46"/>
+      <c r="HT88" s="46"/>
+      <c r="HU88" s="46"/>
+      <c r="HV88" s="46"/>
+      <c r="HW88" s="46"/>
+      <c r="HX88" s="46"/>
+      <c r="HY88" s="46"/>
+      <c r="HZ88" s="46"/>
+      <c r="IA88" s="46"/>
+      <c r="IB88" s="46"/>
+      <c r="IC88" s="46"/>
+      <c r="ID88" s="46"/>
+      <c r="IE88" s="46"/>
+      <c r="IF88" s="46"/>
+      <c r="IG88" s="46"/>
+      <c r="IH88" s="46"/>
+      <c r="II88" s="46"/>
+      <c r="IJ88" s="46"/>
+      <c r="IK88" s="46"/>
+      <c r="IL88" s="46"/>
+      <c r="IM88" s="46"/>
+      <c r="IN88" s="46"/>
+      <c r="IO88" s="46"/>
+      <c r="IP88" s="46"/>
+      <c r="IQ88" s="46"/>
+      <c r="IR88" s="46"/>
+      <c r="IS88" s="46"/>
+      <c r="IT88" s="46"/>
+      <c r="IU88" s="46"/>
+      <c r="IV88" s="46"/>
+      <c r="IW88" s="46"/>
+      <c r="IX88" s="46"/>
+      <c r="IY88" s="46"/>
+      <c r="IZ88" s="46"/>
+    </row>
+    <row r="89" s="61" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="42" t="n">
+        <v>89</v>
+      </c>
+      <c r="B89" s="58" t="n">
+        <v>41009</v>
+      </c>
+      <c r="C89" s="58" t="n">
+        <v>41010</v>
+      </c>
+      <c r="D89" s="59" t="n">
+        <v>900</v>
+      </c>
+      <c r="E89" s="59" t="s">
+        <v>154</v>
+      </c>
+      <c r="F89" s="59" t="n">
+        <v>1</v>
+      </c>
+      <c r="G89" s="59" t="n">
+        <v>6</v>
+      </c>
+      <c r="H89" s="59" t="s">
+        <v>113</v>
+      </c>
+      <c r="I89" s="42"/>
+      <c r="J89" s="55" t="s">
+        <v>19</v>
+      </c>
+      <c r="K89" s="55" t="s">
+        <v>29</v>
+      </c>
+      <c r="L89" s="55" t="s">
+        <v>164</v>
+      </c>
+      <c r="M89" s="60" t="s">
+        <v>165</v>
+      </c>
+      <c r="N89" s="60"/>
+      <c r="O89" s="46"/>
+      <c r="P89" s="47"/>
+      <c r="Q89" s="46"/>
+      <c r="R89" s="46"/>
+      <c r="S89" s="46"/>
+      <c r="T89" s="46"/>
+      <c r="U89" s="46"/>
+      <c r="V89" s="46"/>
+      <c r="W89" s="46"/>
+      <c r="X89" s="46"/>
+      <c r="Y89" s="46"/>
+      <c r="Z89" s="46"/>
+      <c r="AA89" s="46"/>
+      <c r="AB89" s="46"/>
+      <c r="AC89" s="46"/>
+      <c r="AD89" s="46"/>
+      <c r="AE89" s="46"/>
+      <c r="AF89" s="46"/>
+      <c r="AG89" s="46"/>
+      <c r="AH89" s="46"/>
+      <c r="AI89" s="46"/>
+      <c r="AJ89" s="46"/>
+      <c r="AK89" s="46"/>
+      <c r="AL89" s="46"/>
+      <c r="AM89" s="46"/>
+      <c r="AN89" s="46"/>
+      <c r="AO89" s="46"/>
+      <c r="AP89" s="46"/>
+      <c r="AQ89" s="46"/>
+      <c r="AR89" s="46"/>
+      <c r="AS89" s="46"/>
+      <c r="AT89" s="46"/>
+      <c r="AU89" s="46"/>
+      <c r="AV89" s="46"/>
+      <c r="AW89" s="46"/>
+      <c r="AX89" s="46"/>
+      <c r="AY89" s="46"/>
+      <c r="AZ89" s="46"/>
+      <c r="BA89" s="46"/>
+      <c r="BB89" s="46"/>
+      <c r="BC89" s="46"/>
+      <c r="BD89" s="46"/>
+      <c r="BE89" s="46"/>
+      <c r="BF89" s="46"/>
+      <c r="BG89" s="46"/>
+      <c r="BH89" s="46"/>
+      <c r="BI89" s="46"/>
+      <c r="BJ89" s="46"/>
+      <c r="BK89" s="46"/>
+      <c r="BL89" s="46"/>
+      <c r="BM89" s="46"/>
+      <c r="BN89" s="46"/>
+      <c r="BO89" s="46"/>
+      <c r="BP89" s="46"/>
+      <c r="BQ89" s="46"/>
+      <c r="BR89" s="46"/>
+      <c r="BS89" s="46"/>
+      <c r="BT89" s="46"/>
+      <c r="BU89" s="46"/>
+      <c r="BV89" s="46"/>
+      <c r="BW89" s="46"/>
+      <c r="BX89" s="46"/>
+      <c r="BY89" s="46"/>
+      <c r="BZ89" s="46"/>
+      <c r="CA89" s="46"/>
+      <c r="CB89" s="46"/>
+      <c r="CC89" s="46"/>
+      <c r="CD89" s="46"/>
+      <c r="CE89" s="46"/>
+      <c r="CF89" s="46"/>
+      <c r="CG89" s="46"/>
+      <c r="CH89" s="46"/>
+      <c r="CI89" s="46"/>
+      <c r="CJ89" s="46"/>
+      <c r="CK89" s="46"/>
+      <c r="CL89" s="46"/>
+      <c r="CM89" s="46"/>
+      <c r="CN89" s="46"/>
+      <c r="CO89" s="46"/>
+      <c r="CP89" s="46"/>
+      <c r="CQ89" s="46"/>
+      <c r="CR89" s="46"/>
+      <c r="CS89" s="46"/>
+      <c r="CT89" s="46"/>
+      <c r="CU89" s="46"/>
+      <c r="CV89" s="46"/>
+      <c r="CW89" s="46"/>
+      <c r="CX89" s="46"/>
+      <c r="CY89" s="46"/>
+      <c r="CZ89" s="46"/>
+      <c r="DA89" s="46"/>
+      <c r="DB89" s="46"/>
+      <c r="DC89" s="46"/>
+      <c r="DD89" s="46"/>
+      <c r="DE89" s="46"/>
+      <c r="DF89" s="46"/>
+      <c r="DG89" s="46"/>
+      <c r="DH89" s="46"/>
+      <c r="DI89" s="46"/>
+      <c r="DJ89" s="46"/>
+      <c r="DK89" s="46"/>
+      <c r="DL89" s="46"/>
+      <c r="DM89" s="46"/>
+      <c r="DN89" s="46"/>
+      <c r="DO89" s="46"/>
+      <c r="DP89" s="46"/>
+      <c r="DQ89" s="46"/>
+      <c r="DR89" s="46"/>
+      <c r="DS89" s="46"/>
+      <c r="DT89" s="46"/>
+      <c r="DU89" s="46"/>
+      <c r="DV89" s="46"/>
+      <c r="DW89" s="46"/>
+      <c r="DX89" s="46"/>
+      <c r="DY89" s="46"/>
+      <c r="DZ89" s="46"/>
+      <c r="EA89" s="46"/>
+      <c r="EB89" s="46"/>
+      <c r="EC89" s="46"/>
+      <c r="ED89" s="46"/>
+      <c r="EE89" s="46"/>
+      <c r="EF89" s="46"/>
+      <c r="EG89" s="46"/>
+      <c r="EH89" s="46"/>
+      <c r="EI89" s="46"/>
+      <c r="EJ89" s="46"/>
+      <c r="EK89" s="46"/>
+      <c r="EL89" s="46"/>
+      <c r="EM89" s="46"/>
+      <c r="EN89" s="46"/>
+      <c r="EO89" s="46"/>
+      <c r="EP89" s="46"/>
+      <c r="EQ89" s="46"/>
+      <c r="ER89" s="46"/>
+      <c r="ES89" s="46"/>
+      <c r="ET89" s="46"/>
+      <c r="EU89" s="46"/>
+      <c r="EV89" s="46"/>
+      <c r="EW89" s="46"/>
+      <c r="EX89" s="46"/>
+      <c r="EY89" s="46"/>
+      <c r="EZ89" s="46"/>
+      <c r="FA89" s="46"/>
+      <c r="FB89" s="46"/>
+      <c r="FC89" s="46"/>
+      <c r="FD89" s="46"/>
+      <c r="FE89" s="46"/>
+      <c r="FF89" s="46"/>
+      <c r="FG89" s="46"/>
+      <c r="FH89" s="46"/>
+      <c r="FI89" s="46"/>
+      <c r="FJ89" s="46"/>
+      <c r="FK89" s="46"/>
+      <c r="FL89" s="46"/>
+      <c r="FM89" s="46"/>
+      <c r="FN89" s="46"/>
+      <c r="FO89" s="46"/>
+      <c r="FP89" s="46"/>
+      <c r="FQ89" s="46"/>
+      <c r="FR89" s="46"/>
+      <c r="FS89" s="46"/>
+      <c r="FT89" s="46"/>
+      <c r="FU89" s="46"/>
+      <c r="FV89" s="46"/>
+      <c r="FW89" s="46"/>
+      <c r="FX89" s="46"/>
+      <c r="FY89" s="46"/>
+      <c r="FZ89" s="46"/>
+      <c r="GA89" s="46"/>
+      <c r="GB89" s="46"/>
+      <c r="GC89" s="46"/>
+      <c r="GD89" s="46"/>
+      <c r="GE89" s="46"/>
+      <c r="GF89" s="46"/>
+      <c r="GG89" s="46"/>
+      <c r="GH89" s="46"/>
+      <c r="GI89" s="46"/>
+      <c r="GJ89" s="46"/>
+      <c r="GK89" s="46"/>
+      <c r="GL89" s="46"/>
+      <c r="GM89" s="46"/>
+      <c r="GN89" s="46"/>
+      <c r="GO89" s="46"/>
+      <c r="GP89" s="46"/>
+      <c r="GQ89" s="46"/>
+      <c r="GR89" s="46"/>
+      <c r="GS89" s="46"/>
+      <c r="GT89" s="46"/>
+      <c r="GU89" s="46"/>
+      <c r="GV89" s="46"/>
+      <c r="GW89" s="46"/>
+      <c r="GX89" s="46"/>
+      <c r="GY89" s="46"/>
+      <c r="GZ89" s="46"/>
+      <c r="HA89" s="46"/>
+      <c r="HB89" s="46"/>
+      <c r="HC89" s="46"/>
+      <c r="HD89" s="46"/>
+      <c r="HE89" s="46"/>
+      <c r="HF89" s="46"/>
+      <c r="HG89" s="46"/>
+      <c r="HH89" s="46"/>
+      <c r="HI89" s="46"/>
+      <c r="HJ89" s="46"/>
+      <c r="HK89" s="46"/>
+      <c r="HL89" s="46"/>
+      <c r="HM89" s="46"/>
+      <c r="HN89" s="46"/>
+      <c r="HO89" s="46"/>
+      <c r="HP89" s="46"/>
+      <c r="HQ89" s="46"/>
+      <c r="HR89" s="46"/>
+      <c r="HS89" s="46"/>
+      <c r="HT89" s="46"/>
+      <c r="HU89" s="46"/>
+      <c r="HV89" s="46"/>
+      <c r="HW89" s="46"/>
+      <c r="HX89" s="46"/>
+      <c r="HY89" s="46"/>
+      <c r="HZ89" s="46"/>
+      <c r="IA89" s="46"/>
+      <c r="IB89" s="46"/>
+      <c r="IC89" s="46"/>
+      <c r="ID89" s="46"/>
+      <c r="IE89" s="46"/>
+      <c r="IF89" s="46"/>
+      <c r="IG89" s="46"/>
+      <c r="IH89" s="46"/>
+      <c r="II89" s="46"/>
+      <c r="IJ89" s="46"/>
+      <c r="IK89" s="46"/>
+      <c r="IL89" s="46"/>
+      <c r="IM89" s="46"/>
+      <c r="IN89" s="46"/>
+      <c r="IO89" s="46"/>
+      <c r="IP89" s="46"/>
+      <c r="IQ89" s="46"/>
+      <c r="IR89" s="46"/>
+      <c r="IS89" s="46"/>
+      <c r="IT89" s="46"/>
+      <c r="IU89" s="46"/>
+      <c r="IV89" s="46"/>
+      <c r="IW89" s="46"/>
+      <c r="IX89" s="46"/>
+      <c r="IY89" s="46"/>
+      <c r="IZ89" s="46"/>
+    </row>
+    <row r="90" s="61" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="42" t="n">
+        <v>90</v>
+      </c>
+      <c r="B90" s="58" t="n">
+        <v>41010</v>
+      </c>
+      <c r="C90" s="58" t="n">
+        <v>41010</v>
+      </c>
+      <c r="D90" s="59" t="n">
+        <v>86</v>
+      </c>
+      <c r="E90" s="59" t="s">
+        <v>112</v>
+      </c>
+      <c r="F90" s="59" t="n">
+        <v>1</v>
+      </c>
+      <c r="G90" s="59" t="n">
+        <v>6</v>
+      </c>
+      <c r="H90" s="59" t="s">
+        <v>113</v>
+      </c>
+      <c r="I90" s="42"/>
+      <c r="J90" s="55" t="s">
+        <v>19</v>
+      </c>
+      <c r="K90" s="55" t="s">
+        <v>29</v>
+      </c>
+      <c r="L90" s="55" t="s">
+        <v>166</v>
+      </c>
+      <c r="M90" s="60" t="s">
+        <v>167</v>
+      </c>
+      <c r="N90" s="60"/>
+      <c r="O90" s="46"/>
+      <c r="P90" s="47"/>
+      <c r="Q90" s="46"/>
+      <c r="R90" s="46"/>
+      <c r="S90" s="46"/>
+      <c r="T90" s="46"/>
+      <c r="U90" s="46"/>
+      <c r="V90" s="46"/>
+      <c r="W90" s="46"/>
+      <c r="X90" s="46"/>
+      <c r="Y90" s="46"/>
+      <c r="Z90" s="46"/>
+      <c r="AA90" s="46"/>
+      <c r="AB90" s="46"/>
+      <c r="AC90" s="46"/>
+      <c r="AD90" s="46"/>
+      <c r="AE90" s="46"/>
+      <c r="AF90" s="46"/>
+      <c r="AG90" s="46"/>
+      <c r="AH90" s="46"/>
+      <c r="AI90" s="46"/>
+      <c r="AJ90" s="46"/>
+      <c r="AK90" s="46"/>
+      <c r="AL90" s="46"/>
+      <c r="AM90" s="46"/>
+      <c r="AN90" s="46"/>
+      <c r="AO90" s="46"/>
+      <c r="AP90" s="46"/>
+      <c r="AQ90" s="46"/>
+      <c r="AR90" s="46"/>
+      <c r="AS90" s="46"/>
+      <c r="AT90" s="46"/>
+      <c r="AU90" s="46"/>
+      <c r="AV90" s="46"/>
+      <c r="AW90" s="46"/>
+      <c r="AX90" s="46"/>
+      <c r="AY90" s="46"/>
+      <c r="AZ90" s="46"/>
+      <c r="BA90" s="46"/>
+      <c r="BB90" s="46"/>
+      <c r="BC90" s="46"/>
+      <c r="BD90" s="46"/>
+      <c r="BE90" s="46"/>
+      <c r="BF90" s="46"/>
+      <c r="BG90" s="46"/>
+      <c r="BH90" s="46"/>
+      <c r="BI90" s="46"/>
+      <c r="BJ90" s="46"/>
+      <c r="BK90" s="46"/>
+      <c r="BL90" s="46"/>
+      <c r="BM90" s="46"/>
+      <c r="BN90" s="46"/>
+      <c r="BO90" s="46"/>
+      <c r="BP90" s="46"/>
+      <c r="BQ90" s="46"/>
+      <c r="BR90" s="46"/>
+      <c r="BS90" s="46"/>
+      <c r="BT90" s="46"/>
+      <c r="BU90" s="46"/>
+      <c r="BV90" s="46"/>
+      <c r="BW90" s="46"/>
+      <c r="BX90" s="46"/>
+      <c r="BY90" s="46"/>
+      <c r="BZ90" s="46"/>
+      <c r="CA90" s="46"/>
+      <c r="CB90" s="46"/>
+      <c r="CC90" s="46"/>
+      <c r="CD90" s="46"/>
+      <c r="CE90" s="46"/>
+      <c r="CF90" s="46"/>
+      <c r="CG90" s="46"/>
+      <c r="CH90" s="46"/>
+      <c r="CI90" s="46"/>
+      <c r="CJ90" s="46"/>
+      <c r="CK90" s="46"/>
+      <c r="CL90" s="46"/>
+      <c r="CM90" s="46"/>
+      <c r="CN90" s="46"/>
+      <c r="CO90" s="46"/>
+      <c r="CP90" s="46"/>
+      <c r="CQ90" s="46"/>
+      <c r="CR90" s="46"/>
+      <c r="CS90" s="46"/>
+      <c r="CT90" s="46"/>
+      <c r="CU90" s="46"/>
+      <c r="CV90" s="46"/>
+      <c r="CW90" s="46"/>
+      <c r="CX90" s="46"/>
+      <c r="CY90" s="46"/>
+      <c r="CZ90" s="46"/>
+      <c r="DA90" s="46"/>
+      <c r="DB90" s="46"/>
+      <c r="DC90" s="46"/>
+      <c r="DD90" s="46"/>
+      <c r="DE90" s="46"/>
+      <c r="DF90" s="46"/>
+      <c r="DG90" s="46"/>
+      <c r="DH90" s="46"/>
+      <c r="DI90" s="46"/>
+      <c r="DJ90" s="46"/>
+      <c r="DK90" s="46"/>
+      <c r="DL90" s="46"/>
+      <c r="DM90" s="46"/>
+      <c r="DN90" s="46"/>
+      <c r="DO90" s="46"/>
+      <c r="DP90" s="46"/>
+      <c r="DQ90" s="46"/>
+      <c r="DR90" s="46"/>
+      <c r="DS90" s="46"/>
+      <c r="DT90" s="46"/>
+      <c r="DU90" s="46"/>
+      <c r="DV90" s="46"/>
+      <c r="DW90" s="46"/>
+      <c r="DX90" s="46"/>
+      <c r="DY90" s="46"/>
+      <c r="DZ90" s="46"/>
+      <c r="EA90" s="46"/>
+      <c r="EB90" s="46"/>
+      <c r="EC90" s="46"/>
+      <c r="ED90" s="46"/>
+      <c r="EE90" s="46"/>
+      <c r="EF90" s="46"/>
+      <c r="EG90" s="46"/>
+      <c r="EH90" s="46"/>
+      <c r="EI90" s="46"/>
+      <c r="EJ90" s="46"/>
+      <c r="EK90" s="46"/>
+      <c r="EL90" s="46"/>
+      <c r="EM90" s="46"/>
+      <c r="EN90" s="46"/>
+      <c r="EO90" s="46"/>
+      <c r="EP90" s="46"/>
+      <c r="EQ90" s="46"/>
+      <c r="ER90" s="46"/>
+      <c r="ES90" s="46"/>
+      <c r="ET90" s="46"/>
+      <c r="EU90" s="46"/>
+      <c r="EV90" s="46"/>
+      <c r="EW90" s="46"/>
+      <c r="EX90" s="46"/>
+      <c r="EY90" s="46"/>
+      <c r="EZ90" s="46"/>
+      <c r="FA90" s="46"/>
+      <c r="FB90" s="46"/>
+      <c r="FC90" s="46"/>
+      <c r="FD90" s="46"/>
+      <c r="FE90" s="46"/>
+      <c r="FF90" s="46"/>
+      <c r="FG90" s="46"/>
+      <c r="FH90" s="46"/>
+      <c r="FI90" s="46"/>
+      <c r="FJ90" s="46"/>
+      <c r="FK90" s="46"/>
+      <c r="FL90" s="46"/>
+      <c r="FM90" s="46"/>
+      <c r="FN90" s="46"/>
+      <c r="FO90" s="46"/>
+      <c r="FP90" s="46"/>
+      <c r="FQ90" s="46"/>
+      <c r="FR90" s="46"/>
+      <c r="FS90" s="46"/>
+      <c r="FT90" s="46"/>
+      <c r="FU90" s="46"/>
+      <c r="FV90" s="46"/>
+      <c r="FW90" s="46"/>
+      <c r="FX90" s="46"/>
+      <c r="FY90" s="46"/>
+      <c r="FZ90" s="46"/>
+      <c r="GA90" s="46"/>
+      <c r="GB90" s="46"/>
+      <c r="GC90" s="46"/>
+      <c r="GD90" s="46"/>
+      <c r="GE90" s="46"/>
+      <c r="GF90" s="46"/>
+      <c r="GG90" s="46"/>
+      <c r="GH90" s="46"/>
+      <c r="GI90" s="46"/>
+      <c r="GJ90" s="46"/>
+      <c r="GK90" s="46"/>
+      <c r="GL90" s="46"/>
+      <c r="GM90" s="46"/>
+      <c r="GN90" s="46"/>
+      <c r="GO90" s="46"/>
+      <c r="GP90" s="46"/>
+      <c r="GQ90" s="46"/>
+      <c r="GR90" s="46"/>
+      <c r="GS90" s="46"/>
+      <c r="GT90" s="46"/>
+      <c r="GU90" s="46"/>
+      <c r="GV90" s="46"/>
+      <c r="GW90" s="46"/>
+      <c r="GX90" s="46"/>
+      <c r="GY90" s="46"/>
+      <c r="GZ90" s="46"/>
+      <c r="HA90" s="46"/>
+      <c r="HB90" s="46"/>
+      <c r="HC90" s="46"/>
+      <c r="HD90" s="46"/>
+      <c r="HE90" s="46"/>
+      <c r="HF90" s="46"/>
+      <c r="HG90" s="46"/>
+      <c r="HH90" s="46"/>
+      <c r="HI90" s="46"/>
+      <c r="HJ90" s="46"/>
+      <c r="HK90" s="46"/>
+      <c r="HL90" s="46"/>
+      <c r="HM90" s="46"/>
+      <c r="HN90" s="46"/>
+      <c r="HO90" s="46"/>
+      <c r="HP90" s="46"/>
+      <c r="HQ90" s="46"/>
+      <c r="HR90" s="46"/>
+      <c r="HS90" s="46"/>
+      <c r="HT90" s="46"/>
+      <c r="HU90" s="46"/>
+      <c r="HV90" s="46"/>
+      <c r="HW90" s="46"/>
+      <c r="HX90" s="46"/>
+      <c r="HY90" s="46"/>
+      <c r="HZ90" s="46"/>
+      <c r="IA90" s="46"/>
+      <c r="IB90" s="46"/>
+      <c r="IC90" s="46"/>
+      <c r="ID90" s="46"/>
+      <c r="IE90" s="46"/>
+      <c r="IF90" s="46"/>
+      <c r="IG90" s="46"/>
+      <c r="IH90" s="46"/>
+      <c r="II90" s="46"/>
+      <c r="IJ90" s="46"/>
+      <c r="IK90" s="46"/>
+      <c r="IL90" s="46"/>
+      <c r="IM90" s="46"/>
+      <c r="IN90" s="46"/>
+      <c r="IO90" s="46"/>
+      <c r="IP90" s="46"/>
+      <c r="IQ90" s="46"/>
+      <c r="IR90" s="46"/>
+      <c r="IS90" s="46"/>
+      <c r="IT90" s="46"/>
+      <c r="IU90" s="46"/>
+      <c r="IV90" s="46"/>
+      <c r="IW90" s="46"/>
+      <c r="IX90" s="46"/>
+      <c r="IY90" s="46"/>
+      <c r="IZ90" s="46"/>
+    </row>
+    <row r="91" s="61" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="42" t="n">
+        <v>91</v>
+      </c>
+      <c r="B91" s="58" t="n">
+        <v>41010</v>
+      </c>
+      <c r="C91" s="58" t="n">
+        <v>41010</v>
+      </c>
+      <c r="D91" s="59" t="n">
+        <v>120</v>
+      </c>
+      <c r="E91" s="59" t="s">
+        <v>168</v>
+      </c>
+      <c r="F91" s="59" t="n">
+        <v>1</v>
+      </c>
+      <c r="G91" s="59" t="n">
+        <v>6</v>
+      </c>
+      <c r="H91" s="59" t="s">
+        <v>113</v>
+      </c>
+      <c r="I91" s="42"/>
+      <c r="J91" s="55" t="s">
+        <v>19</v>
+      </c>
+      <c r="K91" s="55" t="s">
+        <v>29</v>
+      </c>
+      <c r="L91" s="55" t="s">
+        <v>169</v>
+      </c>
+      <c r="M91" s="60" t="s">
+        <v>170</v>
+      </c>
+      <c r="N91" s="60"/>
+      <c r="O91" s="46"/>
+      <c r="P91" s="47"/>
+      <c r="Q91" s="46"/>
+      <c r="R91" s="46"/>
+      <c r="S91" s="46"/>
+      <c r="T91" s="46"/>
+      <c r="U91" s="46"/>
+      <c r="V91" s="46"/>
+      <c r="W91" s="46"/>
+      <c r="X91" s="46"/>
+      <c r="Y91" s="46"/>
+      <c r="Z91" s="46"/>
+      <c r="AA91" s="46"/>
+      <c r="AB91" s="46"/>
+      <c r="AC91" s="46"/>
+      <c r="AD91" s="46"/>
+      <c r="AE91" s="46"/>
+      <c r="AF91" s="46"/>
+      <c r="AG91" s="46"/>
+      <c r="AH91" s="46"/>
+      <c r="AI91" s="46"/>
+      <c r="AJ91" s="46"/>
+      <c r="AK91" s="46"/>
+      <c r="AL91" s="46"/>
+      <c r="AM91" s="46"/>
+      <c r="AN91" s="46"/>
+      <c r="AO91" s="46"/>
+      <c r="AP91" s="46"/>
+      <c r="AQ91" s="46"/>
+      <c r="AR91" s="46"/>
+      <c r="AS91" s="46"/>
+      <c r="AT91" s="46"/>
+      <c r="AU91" s="46"/>
+      <c r="AV91" s="46"/>
+      <c r="AW91" s="46"/>
+      <c r="AX91" s="46"/>
+      <c r="AY91" s="46"/>
+      <c r="AZ91" s="46"/>
+      <c r="BA91" s="46"/>
+      <c r="BB91" s="46"/>
+      <c r="BC91" s="46"/>
+      <c r="BD91" s="46"/>
+      <c r="BE91" s="46"/>
+      <c r="BF91" s="46"/>
+      <c r="BG91" s="46"/>
+      <c r="BH91" s="46"/>
+      <c r="BI91" s="46"/>
+      <c r="BJ91" s="46"/>
+      <c r="BK91" s="46"/>
+      <c r="BL91" s="46"/>
+      <c r="BM91" s="46"/>
+      <c r="BN91" s="46"/>
+      <c r="BO91" s="46"/>
+      <c r="BP91" s="46"/>
+      <c r="BQ91" s="46"/>
+      <c r="BR91" s="46"/>
+      <c r="BS91" s="46"/>
+      <c r="BT91" s="46"/>
+      <c r="BU91" s="46"/>
+      <c r="BV91" s="46"/>
+      <c r="BW91" s="46"/>
+      <c r="BX91" s="46"/>
+      <c r="BY91" s="46"/>
+      <c r="BZ91" s="46"/>
+      <c r="CA91" s="46"/>
+      <c r="CB91" s="46"/>
+      <c r="CC91" s="46"/>
+      <c r="CD91" s="46"/>
+      <c r="CE91" s="46"/>
+      <c r="CF91" s="46"/>
+      <c r="CG91" s="46"/>
+      <c r="CH91" s="46"/>
+      <c r="CI91" s="46"/>
+      <c r="CJ91" s="46"/>
+      <c r="CK91" s="46"/>
+      <c r="CL91" s="46"/>
+      <c r="CM91" s="46"/>
+      <c r="CN91" s="46"/>
+      <c r="CO91" s="46"/>
+      <c r="CP91" s="46"/>
+      <c r="CQ91" s="46"/>
+      <c r="CR91" s="46"/>
+      <c r="CS91" s="46"/>
+      <c r="CT91" s="46"/>
+      <c r="CU91" s="46"/>
+      <c r="CV91" s="46"/>
+      <c r="CW91" s="46"/>
+      <c r="CX91" s="46"/>
+      <c r="CY91" s="46"/>
+      <c r="CZ91" s="46"/>
+      <c r="DA91" s="46"/>
+      <c r="DB91" s="46"/>
+      <c r="DC91" s="46"/>
+      <c r="DD91" s="46"/>
+      <c r="DE91" s="46"/>
+      <c r="DF91" s="46"/>
+      <c r="DG91" s="46"/>
+      <c r="DH91" s="46"/>
+      <c r="DI91" s="46"/>
+      <c r="DJ91" s="46"/>
+      <c r="DK91" s="46"/>
+      <c r="DL91" s="46"/>
+      <c r="DM91" s="46"/>
+      <c r="DN91" s="46"/>
+      <c r="DO91" s="46"/>
+      <c r="DP91" s="46"/>
+      <c r="DQ91" s="46"/>
+      <c r="DR91" s="46"/>
+      <c r="DS91" s="46"/>
+      <c r="DT91" s="46"/>
+      <c r="DU91" s="46"/>
+      <c r="DV91" s="46"/>
+      <c r="DW91" s="46"/>
+      <c r="DX91" s="46"/>
+      <c r="DY91" s="46"/>
+      <c r="DZ91" s="46"/>
+      <c r="EA91" s="46"/>
+      <c r="EB91" s="46"/>
+      <c r="EC91" s="46"/>
+      <c r="ED91" s="46"/>
+      <c r="EE91" s="46"/>
+      <c r="EF91" s="46"/>
+      <c r="EG91" s="46"/>
+      <c r="EH91" s="46"/>
+      <c r="EI91" s="46"/>
+      <c r="EJ91" s="46"/>
+      <c r="EK91" s="46"/>
+      <c r="EL91" s="46"/>
+      <c r="EM91" s="46"/>
+      <c r="EN91" s="46"/>
+      <c r="EO91" s="46"/>
+      <c r="EP91" s="46"/>
+      <c r="EQ91" s="46"/>
+      <c r="ER91" s="46"/>
+      <c r="ES91" s="46"/>
+      <c r="ET91" s="46"/>
+      <c r="EU91" s="46"/>
+      <c r="EV91" s="46"/>
+      <c r="EW91" s="46"/>
+      <c r="EX91" s="46"/>
+      <c r="EY91" s="46"/>
+      <c r="EZ91" s="46"/>
+      <c r="FA91" s="46"/>
+      <c r="FB91" s="46"/>
+      <c r="FC91" s="46"/>
+      <c r="FD91" s="46"/>
+      <c r="FE91" s="46"/>
+      <c r="FF91" s="46"/>
+      <c r="FG91" s="46"/>
+      <c r="FH91" s="46"/>
+      <c r="FI91" s="46"/>
+      <c r="FJ91" s="46"/>
+      <c r="FK91" s="46"/>
+      <c r="FL91" s="46"/>
+      <c r="FM91" s="46"/>
+      <c r="FN91" s="46"/>
+      <c r="FO91" s="46"/>
+      <c r="FP91" s="46"/>
+      <c r="FQ91" s="46"/>
+      <c r="FR91" s="46"/>
+      <c r="FS91" s="46"/>
+      <c r="FT91" s="46"/>
+      <c r="FU91" s="46"/>
+      <c r="FV91" s="46"/>
+      <c r="FW91" s="46"/>
+      <c r="FX91" s="46"/>
+      <c r="FY91" s="46"/>
+      <c r="FZ91" s="46"/>
+      <c r="GA91" s="46"/>
+      <c r="GB91" s="46"/>
+      <c r="GC91" s="46"/>
+      <c r="GD91" s="46"/>
+      <c r="GE91" s="46"/>
+      <c r="GF91" s="46"/>
+      <c r="GG91" s="46"/>
+      <c r="GH91" s="46"/>
+      <c r="GI91" s="46"/>
+      <c r="GJ91" s="46"/>
+      <c r="GK91" s="46"/>
+      <c r="GL91" s="46"/>
+      <c r="GM91" s="46"/>
+      <c r="GN91" s="46"/>
+      <c r="GO91" s="46"/>
+      <c r="GP91" s="46"/>
+      <c r="GQ91" s="46"/>
+      <c r="GR91" s="46"/>
+      <c r="GS91" s="46"/>
+      <c r="GT91" s="46"/>
+      <c r="GU91" s="46"/>
+      <c r="GV91" s="46"/>
+      <c r="GW91" s="46"/>
+      <c r="GX91" s="46"/>
+      <c r="GY91" s="46"/>
+      <c r="GZ91" s="46"/>
+      <c r="HA91" s="46"/>
+      <c r="HB91" s="46"/>
+      <c r="HC91" s="46"/>
+      <c r="HD91" s="46"/>
+      <c r="HE91" s="46"/>
+      <c r="HF91" s="46"/>
+      <c r="HG91" s="46"/>
+      <c r="HH91" s="46"/>
+      <c r="HI91" s="46"/>
+      <c r="HJ91" s="46"/>
+      <c r="HK91" s="46"/>
+      <c r="HL91" s="46"/>
+      <c r="HM91" s="46"/>
+      <c r="HN91" s="46"/>
+      <c r="HO91" s="46"/>
+      <c r="HP91" s="46"/>
+      <c r="HQ91" s="46"/>
+      <c r="HR91" s="46"/>
+      <c r="HS91" s="46"/>
+      <c r="HT91" s="46"/>
+      <c r="HU91" s="46"/>
+      <c r="HV91" s="46"/>
+      <c r="HW91" s="46"/>
+      <c r="HX91" s="46"/>
+      <c r="HY91" s="46"/>
+      <c r="HZ91" s="46"/>
+      <c r="IA91" s="46"/>
+      <c r="IB91" s="46"/>
+      <c r="IC91" s="46"/>
+      <c r="ID91" s="46"/>
+      <c r="IE91" s="46"/>
+      <c r="IF91" s="46"/>
+      <c r="IG91" s="46"/>
+      <c r="IH91" s="46"/>
+      <c r="II91" s="46"/>
+      <c r="IJ91" s="46"/>
+      <c r="IK91" s="46"/>
+      <c r="IL91" s="46"/>
+      <c r="IM91" s="46"/>
+      <c r="IN91" s="46"/>
+      <c r="IO91" s="46"/>
+      <c r="IP91" s="46"/>
+      <c r="IQ91" s="46"/>
+      <c r="IR91" s="46"/>
+      <c r="IS91" s="46"/>
+      <c r="IT91" s="46"/>
+      <c r="IU91" s="46"/>
+      <c r="IV91" s="46"/>
+      <c r="IW91" s="46"/>
+      <c r="IX91" s="46"/>
+      <c r="IY91" s="46"/>
+      <c r="IZ91" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/CosmicTests/JLabCosmicRunList.xlsx
+++ b/CosmicTests/JLabCosmicRunList.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="true"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" state="visible" r:id="rId2"/>
@@ -1008,25 +1008,28 @@
   </sheetPr>
   <dimension ref="A1:IZ91"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="M66" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M75" activeCellId="0" sqref="M75"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E28" activeCellId="0" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="41.2555555555556"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="1" width="28.6148148148148"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="24.8888888888889"/>
-    <col collapsed="false" hidden="false" max="9" min="5" style="1" width="41.2555555555556"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="86.3333333333333"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="149.833333333333"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="82.1185185185185"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="10.237037037037"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="13.7185185185185"/>
+    <col collapsed="false" hidden="false" max="5" min="3" style="1" width="8.36296296296296"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="6.44814814814815"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="12.0777777777778"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="13.9222222222222"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="8.36296296296296"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="39.6222222222222"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="65.837037037037"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="48.6296296296296"/>
     <col collapsed="false" hidden="false" max="13" min="13" style="1" width="91.8481481481482"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="33.1222222222222"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="41.2555555555556"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="2" width="41.2555555555556"/>
-    <col collapsed="false" hidden="false" max="260" min="17" style="1" width="41.2555555555556"/>
-    <col collapsed="false" hidden="false" max="1025" min="261" style="0" width="9.6037037037037"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="9.62222222222222"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="42.3333333333333"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="2" width="42.3333333333333"/>
+    <col collapsed="false" hidden="false" max="260" min="17" style="1" width="42.3333333333333"/>
+    <col collapsed="false" hidden="false" max="1025" min="261" style="0" width="9.8"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="19" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
